--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
     <sheet name="Aghili" sheetId="2" r:id="rId2"/>
     <sheet name="Kaveh" sheetId="3" r:id="rId3"/>
+    <sheet name="Me&amp;Khl" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="171">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -460,9 +461,6 @@
     <t>Assign business info in update business profile info in getResult</t>
   </si>
   <si>
-    <t>Close all p dialogs in getError()</t>
-  </si>
-  <si>
     <t>set business category and subcategory base on business profile info</t>
   </si>
   <si>
@@ -487,9 +485,6 @@
     <t>assign business info</t>
   </si>
   <si>
-    <t>Done : 10-12</t>
-  </si>
-  <si>
     <t>close change email dialog after submit and displaying second dialog</t>
   </si>
   <si>
@@ -499,9 +494,6 @@
     <t>close change password dialog after submit and displaying second dialog</t>
   </si>
   <si>
-    <t>check ActivityNewBusiness_Step1 line 84</t>
-  </si>
-  <si>
     <t>Test UnFollowBusiness webservice</t>
   </si>
   <si>
@@ -509,6 +501,70 @@
   </si>
   <si>
     <t>Uncomment AlarmManager in AcitivityMain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Close all  dialogs in getError()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check Khalili ToDo </t>
+  </si>
+  <si>
+    <t>tested just in getBusinessHomeInfo</t>
+  </si>
+  <si>
+    <t>couldn't test because of GetBusinessProfileInfo error</t>
+  </si>
+  <si>
+    <t>getError-&gt;Dialogs.showMessage : throws exception</t>
+  </si>
+  <si>
+    <t>business' about isn't displayed</t>
+  </si>
+  <si>
+    <t>launch server</t>
+  </si>
+  <si>
+    <t>how do you display  description for business?</t>
+  </si>
+  <si>
+    <t>disable businessUserName checking in editing mode</t>
+  </si>
+  <si>
+    <t>disable webservice progress dialog on back pressed</t>
+  </si>
+  <si>
+    <t>ProfileFragment</t>
+  </si>
+  <si>
+    <t>getResutl-&gt;assignNow: line 549 throws exception</t>
+  </si>
+  <si>
+    <t>throws exception: backing from ActivityNewBusiness_Step2 and clicking
+on the description edtitext</t>
+  </si>
+  <si>
+    <t>don't display hashtags in description field</t>
+  </si>
+  <si>
+    <t>ActivityWorkTime</t>
+  </si>
+  <si>
+    <t>returns wrong times</t>
+  </si>
+  <si>
+    <t>display profile picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display success message and back </t>
+  </si>
+  <si>
+    <t>from No 101 to No 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from No 116 </t>
   </si>
 </sst>
 </file>
@@ -538,14 +594,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="0.39997558519241921"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -571,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -583,9 +639,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,18 +949,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="57.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,7 +1593,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="A93" s="8">
         <v>42014</v>
       </c>
     </row>
@@ -1553,7 +1613,7 @@
         <v>123</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1568,7 +1628,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -1576,7 +1636,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -1584,13 +1644,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -1598,7 +1658,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -1612,21 +1672,27 @@
       <c r="B102" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>149</v>
+      <c r="C102" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="C103" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>136</v>
+      <c r="A104" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,39 +1700,51 @@
         <v>133</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>142</v>
+      <c r="C108" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>144</v>
+      <c r="C109" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,7 +1752,7 @@
       <c r="B110" s="6"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+      <c r="A111" s="8">
         <v>42045</v>
       </c>
     </row>
@@ -1683,10 +1761,10 @@
         <v>126</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,10 +1772,113 @@
         <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1739,17 +1920,73 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>152</v>
+      </c>
+      <c r="B2">
+        <v>820</v>
+      </c>
+      <c r="C2">
+        <v>1130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>1130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="174">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -565,6 +565,15 @@
   </si>
   <si>
     <t xml:space="preserve">from No 116 </t>
+  </si>
+  <si>
+    <t>Webservice bug</t>
+  </si>
+  <si>
+    <t>ActivityNewPost_step1</t>
+  </si>
+  <si>
+    <t>remove waste dialog</t>
   </si>
 </sst>
 </file>
@@ -949,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,6 +1862,9 @@
       <c r="B122" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="C122" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -1872,6 +1884,9 @@
       <c r="B124" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="C124" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -1879,6 +1894,14 @@
       </c>
       <c r="B125" s="1" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1932,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,6 +2008,9 @@
       <c r="B3">
         <v>1130</v>
       </c>
+      <c r="C3">
+        <v>1610</v>
+      </c>
       <c r="D3" t="s">
         <v>170</v>
       </c>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="181">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -570,10 +570,31 @@
     <t>Webservice bug</t>
   </si>
   <si>
-    <t>ActivityNewPost_step1</t>
-  </si>
-  <si>
     <t>remove waste dialog</t>
+  </si>
+  <si>
+    <t>force close after removing business</t>
+  </si>
+  <si>
+    <t>force close occures in ActivityMaing-&gt;backToRoot-&gt;onBackPressed line 305</t>
+  </si>
+  <si>
+    <t>ActivityNewPost_step2</t>
+  </si>
+  <si>
+    <t>dialog is displayed after entering activity</t>
+  </si>
+  <si>
+    <t>there is an option to choose picture, why?!</t>
+  </si>
+  <si>
+    <t>isEditing is true while adding new post</t>
+  </si>
+  <si>
+    <t>throws exception like No 121</t>
+  </si>
+  <si>
+    <t>getResult: force close</t>
   </si>
 </sst>
 </file>
@@ -958,17 +979,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1889,7 +1910,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -1898,10 +1919,61 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <v>42050</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1965,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -570,6 +570,9 @@
     <t>Webservice bug</t>
   </si>
   <si>
+    <t>ActivityNewPost_step1</t>
+  </si>
+  <si>
     <t>remove waste dialog</t>
   </si>
   <si>
@@ -595,6 +598,24 @@
   </si>
   <si>
     <t>getResult: force close</t>
+  </si>
+  <si>
+    <t>post are not displayed!!!</t>
+  </si>
+  <si>
+    <t>listview has lag</t>
+  </si>
+  <si>
+    <t>user hasn't right to edit shared post</t>
+  </si>
+  <si>
+    <t>share and report couldn't be displayed</t>
+  </si>
+  <si>
+    <t>share option didn't implement</t>
+  </si>
+  <si>
+    <t>post picture is not displayed</t>
   </si>
 </sst>
 </file>
@@ -657,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -675,6 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,13 +1941,13 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,26 +1960,26 @@
         <v>63</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1965,18 +1987,81 @@
         <v>9</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A135:A138"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="189">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>post picture is not displayed</t>
+  </si>
+  <si>
+    <t>change getResult</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,11 +1970,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>178</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,6 +2062,14 @@
       </c>
       <c r="C139" s="1" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="191">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -619,6 +619,12 @@
   </si>
   <si>
     <t>change getResult</t>
+  </si>
+  <si>
+    <t>UserConfirmation</t>
+  </si>
+  <si>
+    <t>implement user confirmation</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,6 +2076,14 @@
       </c>
       <c r="B140" s="1" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -661,12 +661,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -681,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -700,6 +712,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1614,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>103</v>
       </c>
@@ -1894,12 +1912,13 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="15" t="s">
         <v>163</v>
       </c>
+      <c r="C121" s="13"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -1935,21 +1954,22 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="14" t="s">
         <v>168</v>
       </c>
+      <c r="C125" s="14"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1959,13 +1979,13 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1981,28 +2001,31 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="12" t="s">
         <v>179</v>
       </c>
+      <c r="C131" s="12"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="13" t="s">
         <v>180</v>
       </c>
+      <c r="C132" s="13"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="14" t="s">
         <v>181</v>
       </c>
+      <c r="C133" s="14"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -693,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -718,6 +718,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2041,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -2050,7 +2052,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="1" t="s">
         <v>184</v>
       </c>
@@ -2059,7 +2061,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="1" t="s">
         <v>185</v>
       </c>
@@ -2068,7 +2070,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="1" t="s">
         <v>186</v>
       </c>
@@ -2088,12 +2090,22 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="17" t="s">
         <v>188</v>
       </c>
+      <c r="C140" s="17"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="11"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -619,6 +619,22 @@
   </si>
   <si>
     <t>change getResult</t>
+  </si>
+  <si>
+    <t>OptionPost</t>
+  </si>
+  <si>
+    <t>Line 101: don't you think you must remove test part
+and replace post.id and post.businessId with test values?
+You wrote an answer for me?!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>getResult: webservice works finde but getResult doesn't display
+ businesses in listview</t>
+  </si>
+  <si>
+    <t>change message in getResult and back to the previous page and
+execute GetUserHomeInfo againt to update permissions</t>
   </si>
 </sst>
 </file>
@@ -711,7 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -720,6 +735,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,16 +1040,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="68.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -1914,13 +1930,13 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C121" s="13"/>
+      <c r="C121" s="12"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -1956,22 +1972,22 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C125" s="14"/>
+      <c r="C125" s="13"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1981,13 +1997,13 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="12" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2003,31 +2019,31 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C131" s="12"/>
+      <c r="C131" s="11"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C132" s="13"/>
+      <c r="C132" s="12"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C133" s="14"/>
+      <c r="C133" s="13"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -2041,7 +2057,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -2052,7 +2068,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="1" t="s">
         <v>184</v>
       </c>
@@ -2061,7 +2077,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
+      <c r="A137" s="17"/>
       <c r="B137" s="1" t="s">
         <v>185</v>
       </c>
@@ -2070,7 +2086,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
+      <c r="A138" s="17"/>
       <c r="B138" s="1" t="s">
         <v>186</v>
       </c>
@@ -2090,22 +2106,43 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C140" s="17"/>
-    </row>
+      <c r="C140" s="16"/>
+    </row>
+    <row r="141" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="11"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="11"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="11"/>
+      <c r="A142" s="8">
+        <v>42051</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="196">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -635,6 +635,20 @@
   <si>
     <t>change message in getResult and back to the previous page and
 execute GetUserHomeInfo againt to update permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take creation date as int(for the test, pass an integer value)
+</t>
+  </si>
+  <si>
+    <t>display businessUserName and business profilePicture
+you have businessUserName and businessProfilePictureId in
+GetBusinessHomeInfo webservice(getResult when result is instance
+of Business)</t>
+  </si>
+  <si>
+    <t>Display right vaules for like number,comment number and share 
+number</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,9 +2158,30 @@
         <v>192</v>
       </c>
     </row>
+    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A147" s="17"/>
+      <c r="B147" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="17"/>
+      <c r="B148" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A146:A148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="198">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -649,6 +649,35 @@
   <si>
     <t>Display right vaules for like number,comment number and share 
 number</t>
+  </si>
+  <si>
+    <t>Update user profile</t>
+  </si>
+  <si>
+    <r>
+      <t>change birthdate dialog to return month as 2digit string like
+1392/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/12</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -691,7 +720,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,13 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -736,20 +759,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A152" sqref="A151:A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,8 +1718,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+    <row r="93" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
         <v>42014</v>
       </c>
     </row>
@@ -1733,7 +1754,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -1741,7 +1762,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -1749,13 +1770,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -1763,7 +1784,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -1777,7 +1798,7 @@
       <c r="B102" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1793,7 +1814,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -1823,7 +1844,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -1856,8 +1877,8 @@
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
+    <row r="111" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
         <v>42045</v>
       </c>
     </row>
@@ -1883,8 +1904,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="8">
+    <row r="115" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
         <v>42049</v>
       </c>
     </row>
@@ -1933,102 +1954,107 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C121" s="12"/>
+      <c r="C121" s="6"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C125" s="13"/>
+      <c r="C125" s="6"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="8">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+    </row>
+    <row r="128" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
         <v>42050</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="11" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2042,100 +2068,100 @@
       <c r="C131" s="11"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C132" s="12"/>
+      <c r="C132" s="6"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C133" s="13"/>
+      <c r="C133" s="6"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
-      <c r="B136" s="1" t="s">
+      <c r="A136" s="12"/>
+      <c r="B136" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="17"/>
-      <c r="B137" s="1" t="s">
+      <c r="A137" s="12"/>
+      <c r="B137" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="17"/>
-      <c r="B138" s="1" t="s">
+      <c r="A138" s="12"/>
+      <c r="B138" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C140" s="16"/>
-    </row>
-    <row r="141" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
+      <c r="C140" s="11"/>
+    </row>
+    <row r="141" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14">
         <v>42051</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="10" t="s">
         <v>189</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -2143,7 +2169,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -2151,7 +2177,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -2159,7 +2185,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2167,15 +2193,31 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="17"/>
+      <c r="A147" s="12"/>
       <c r="B147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="17"/>
+      <c r="A148" s="12"/>
       <c r="B148" s="2" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14">
+        <v>42052</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="214">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -678,6 +678,58 @@
       </rPr>
       <t>/12</t>
     </r>
+  </si>
+  <si>
+    <t>display user profile picture with profilePictureId and using DownloadImages class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add website field </t>
+  </si>
+  <si>
+    <t>display map in appropriate zoom scale</t>
+  </si>
+  <si>
+    <t>FragmentCallInfo,FragmentNewBusiness_step2</t>
+  </si>
+  <si>
+    <t>Update mode: display business profilePicture(with profilePicture and not with profilePicutureId,I will do that later) and businessUserName</t>
+  </si>
+  <si>
+    <t>ActivityNewBusiness_step2</t>
+  </si>
+  <si>
+    <t>Update mode: display business existed info in related fields</t>
+  </si>
+  <si>
+    <t>UpdateMode: spinners display wrong values
+(for the test,choose a business with category:cloth and subcategory:men cloth)</t>
+  </si>
+  <si>
+    <t>You should add new added post to the adapter in previous page</t>
+  </si>
+  <si>
+    <t>All views which execute webservices must have
+progressBar dialog</t>
+  </si>
+  <si>
+    <t>Force close after adding new post or updating post in getResult</t>
+  </si>
+  <si>
+    <t>Display businessProfilePicture and businessUserName and post title in 
+business' posts gridAdapter</t>
+  </si>
+  <si>
+    <t>GetBusinessHomeInfo,GetBusinessPosts don't have this dialog</t>
+  </si>
+  <si>
+    <t>Follow request button wouldn't change after FollowBusiness execution</t>
+  </si>
+  <si>
+    <t>How do you display DeletePost success message?</t>
+  </si>
+  <si>
+    <t>creationDate is in int format now, make necessary changes
+Attention: newest post should be displayed first</t>
   </si>
 </sst>
 </file>
@@ -746,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -771,6 +823,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A152" sqref="A151:A152"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,10 +2277,109 @@
         <v>197</v>
       </c>
     </row>
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="18"/>
+      <c r="B163" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A146:A148"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A162:A163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -701,10 +701,6 @@
     <t>Update mode: display business existed info in related fields</t>
   </si>
   <si>
-    <t>UpdateMode: spinners display wrong values
-(for the test,choose a business with category:cloth and subcategory:men cloth)</t>
-  </si>
-  <si>
     <t>You should add new added post to the adapter in previous page</t>
   </si>
   <si>
@@ -715,28 +711,80 @@
     <t>Force close after adding new post or updating post in getResult</t>
   </si>
   <si>
-    <t>Display businessProfilePicture and businessUserName and post title in 
-business' posts gridAdapter</t>
-  </si>
-  <si>
     <t>GetBusinessHomeInfo,GetBusinessPosts don't have this dialog</t>
   </si>
   <si>
-    <t>Follow request button wouldn't change after FollowBusiness execution</t>
-  </si>
-  <si>
     <t>How do you display DeletePost success message?</t>
   </si>
   <si>
-    <t>creationDate is in int format now, make necessary changes
+    <r>
+      <t>UpdateMode: spinners display wrong values
+(for the test,choose a business with category:cloth and subcategory:men cloth)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( check again please )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display businessProfilePicture and businessUserName and post title in 
+business' posts gridAdapter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( what do you mean exactly ? Shouldn't we show picture only ? )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow request button wouldn't change after FollowBusiness execution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( I've got an error from web service when I touched follow, please check that, i 'll check this too)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>creationDate is in int format now, make necessary changes
 Attention: newest post should be displayed first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( they're sorted by id from webservice I think, am I wrong ? )</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,8 +819,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +837,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -824,10 +891,20 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,7 +2231,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -2165,7 +2242,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="11" t="s">
         <v>184</v>
       </c>
@@ -2174,7 +2251,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+      <c r="A137" s="17"/>
       <c r="B137" s="11" t="s">
         <v>185</v>
       </c>
@@ -2183,7 +2260,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
+      <c r="A138" s="17"/>
       <c r="B138" s="11" t="s">
         <v>186</v>
       </c>
@@ -2242,7 +2319,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2250,13 +2327,13 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
+      <c r="A147" s="17"/>
       <c r="B147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
+      <c r="A148" s="17"/>
       <c r="B148" s="2" t="s">
         <v>195</v>
       </c>
@@ -2270,107 +2347,108 @@
       </c>
     </row>
     <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="22" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="22" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="22" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B156" s="2" t="s">
+      <c r="A156" s="12"/>
+      <c r="B156" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="23"/>
+      <c r="B159" s="22" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="18"/>
       <c r="B163" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="20" t="s">
         <v>213</v>
       </c>
     </row>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="218">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -779,12 +779,24 @@
       <t xml:space="preserve"> ( they're sorted by id from webservice I think, am I wrong ? )</t>
     </r>
   </si>
+  <si>
+    <t>implement unlike post</t>
+  </si>
+  <si>
+    <t>there is unlike webservice</t>
+  </si>
+  <si>
+    <t>implement unfollow business</t>
+  </si>
+  <si>
+    <t>implement unfriend user</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,27 +819,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,13 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -875,14 +867,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -890,21 +878,17 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,15 +1193,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:A163"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="68.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
@@ -1225,7 +1209,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1236,7 +1220,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1247,7 +1231,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1255,7 +1239,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1266,7 +1250,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1277,7 +1261,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1288,7 +1272,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1299,7 +1283,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1307,7 +1291,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1318,7 +1302,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1329,12 +1313,12 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1345,7 +1329,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1356,7 +1340,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1364,7 +1348,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1372,7 +1356,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1383,7 +1367,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1391,7 +1375,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1399,7 +1383,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1415,7 +1399,7 @@
       <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1423,7 +1407,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1431,7 +1415,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1439,7 +1423,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1447,7 +1431,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1455,7 +1439,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1463,7 +1447,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1481,7 +1465,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1489,7 +1473,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1497,20 +1481,20 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1518,7 +1502,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1526,25 +1510,25 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1557,7 +1541,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1565,7 +1549,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1578,7 +1562,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1586,7 +1570,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1594,7 +1578,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1602,7 +1586,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1610,7 +1594,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1618,7 +1602,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1626,12 +1610,12 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1639,7 +1623,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1647,7 +1631,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1655,7 +1639,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1663,12 +1647,12 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1676,7 +1660,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1684,12 +1668,12 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1697,7 +1681,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1705,7 +1689,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="1">
@@ -1713,7 +1697,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1724,7 +1708,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1735,7 +1719,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -1743,7 +1727,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1754,7 +1738,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1762,7 +1746,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -1770,7 +1754,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -1781,12 +1765,12 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1794,7 +1778,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -1802,7 +1786,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -1821,7 +1805,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1829,7 +1813,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -1837,7 +1821,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -1845,20 +1829,20 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+    <row r="93" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
         <v>42014</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -1866,7 +1850,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -1877,7 +1861,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -1888,7 +1872,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -1896,7 +1880,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -1904,13 +1888,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -1918,7 +1902,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -1926,18 +1910,18 @@
       </c>
     </row>
     <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -1948,7 +1932,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -1956,7 +1940,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -1967,7 +1951,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="12" t="s">
         <v>138</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -1978,7 +1962,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="12" t="s">
         <v>139</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -1986,7 +1970,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="12" t="s">
         <v>138</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -1997,10 +1981,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -2008,16 +1992,15 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
         <v>42045</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -2028,7 +2011,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -2038,13 +2021,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14">
+    <row r="115" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
         <v>42049</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -2055,7 +2038,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -2066,7 +2049,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -2077,7 +2060,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -2088,214 +2071,215 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C121" s="6"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C125" s="6"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-    </row>
-    <row r="128" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
         <v>42050</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C131" s="11"/>
+      <c r="C131" s="8"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C132" s="6"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C133" s="6"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
-      <c r="B136" s="11" t="s">
+      <c r="A136" s="13"/>
+      <c r="B136" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="17"/>
-      <c r="B137" s="11" t="s">
+      <c r="A137" s="13"/>
+      <c r="B137" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="17"/>
-      <c r="B138" s="11" t="s">
+      <c r="A138" s="13"/>
+      <c r="B138" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C140" s="11"/>
-    </row>
-    <row r="141" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+    </row>
+    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="10">
         <v>42051</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="12" t="s">
         <v>189</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -2303,153 +2287,188 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="17"/>
+    <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
       <c r="B147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="17"/>
+    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
       <c r="B148" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14">
+    <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
         <v>42052</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="21" t="s">
+    <row r="151" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="21" t="s">
+    <row r="152" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="21" t="s">
+    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="21" t="s">
+      <c r="B153" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="21" t="s">
+    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="21" t="s">
+    <row r="155" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-      <c r="B156" s="20" t="s">
+    <row r="156" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="21" t="s">
+    <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="B157" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="23" t="s">
+    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="23"/>
-      <c r="B159" s="22" t="s">
+    <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+      <c r="B159" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="16" t="s">
+    <row r="160" spans="1:6" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="15" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="24" t="s">
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+    </row>
+    <row r="161" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B161" s="22" t="s">
+      <c r="B161" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="15" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+    </row>
+    <row r="163" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="18"/>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="15" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+    </row>
+    <row r="164" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="2" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10">
+        <v>42053</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="229">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -790,6 +790,48 @@
   </si>
   <si>
     <t>implement unfriend user</t>
+  </si>
+  <si>
+    <t>Implement Get all comment notifications webservice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Create a feature in User home page or elsewhere to display user's
+all comment notifications. This webservice returns last comments
+of user's all businesses. You have to create a listview with these items:
+user's profile picture (how wrote the comment)
+post's profile picture (which the comment belongs to)
+comment text
+with clicking on each item, the post will be displayed (with using 
+post.id)</t>
+  </si>
+  <si>
+    <t>there is no feature to update a review in Review page</t>
+  </si>
+  <si>
+    <t>Update Review</t>
+  </si>
+  <si>
+    <t>Delete Review</t>
+  </si>
+  <si>
+    <t>there is no feature to delete a review in Review page</t>
+  </si>
+  <si>
+    <t>ActivityComment</t>
+  </si>
+  <si>
+    <t>Force close: getResult</t>
+  </si>
+  <si>
+    <t>FragmentComment</t>
+  </si>
+  <si>
+    <t>some time it gets Force Close before executing doInBackground in 
+sendComment webservice. Check it plz.</t>
+  </si>
+  <si>
+    <t>Force close: getResult (if webservice is executed)</t>
   </si>
 </sst>
 </file>
@@ -857,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -888,7 +930,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,15 +1240,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="68.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
@@ -2213,7 +2260,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2224,7 +2271,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
+      <c r="A136" s="19"/>
       <c r="B136" s="8" t="s">
         <v>184</v>
       </c>
@@ -2233,7 +2280,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
+      <c r="A137" s="19"/>
       <c r="B137" s="8" t="s">
         <v>185</v>
       </c>
@@ -2242,7 +2289,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
+      <c r="A138" s="19"/>
       <c r="B138" s="8" t="s">
         <v>186</v>
       </c>
@@ -2303,7 +2350,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2311,13 +2358,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
+      <c r="A147" s="19"/>
       <c r="B147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
+      <c r="A148" s="19"/>
       <c r="B148" s="2" t="s">
         <v>195</v>
       </c>
@@ -2385,7 +2432,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2393,7 +2440,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
+      <c r="A159" s="19"/>
       <c r="B159" s="2" t="s">
         <v>205</v>
       </c>
@@ -2419,7 +2466,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="15" t="s">
@@ -2431,7 +2478,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="18"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="15" t="s">
         <v>209</v>
       </c>
@@ -2471,12 +2518,59 @@
         <v>217</v>
       </c>
     </row>
+    <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="21"/>
+      <c r="B175" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A146:A148"/>
     <mergeCell ref="A158:A159"/>
     <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A174:A175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="235">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -832,6 +832,30 @@
   </si>
   <si>
     <t>Force close: getResult (if webservice is executed)</t>
+  </si>
+  <si>
+    <t>ViewHolder -&gt; initial() -&gt;this.options.setOnClickListener : 
+line 135</t>
+  </si>
+  <si>
+    <t>update list after deleting one post</t>
+  </si>
+  <si>
+    <t>ActivityNewBusiness_step1</t>
+  </si>
+  <si>
+    <t>put progress dialog for chaging categroy spinner and executing
+GetSubcategories</t>
+  </si>
+  <si>
+    <t>pass wrong business.id to the ActivityNewBusienss_step2.
+check ActivityNewBusienss_step2 line 166 to see worng id.</t>
+  </si>
+  <si>
+    <t>If user have 0 friend or review or followed business:
+Don't go to the related pages
+If business have 0 follower or review:
+Don't go to the related pages</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,8 +2588,52 @@
         <v>228</v>
       </c>
     </row>
+    <row r="177" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="10">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="19"/>
+      <c r="B179" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A146:A148"/>
     <mergeCell ref="A158:A159"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="236">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -662,7 +662,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -672,7 +672,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,7 +725,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -741,7 +741,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -756,7 +756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -772,7 +772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -857,6 +857,9 @@
 If business have 0 follower or review:
 Don't go to the related pages</t>
   </si>
+  <si>
+    <t>see options review please</t>
+  </si>
 </sst>
 </file>
 
@@ -866,32 +869,32 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,6 +913,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -923,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -955,9 +970,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1266,20 +1289,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="52.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="59.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1361,7 +1384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1372,7 +1395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1383,12 +1406,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +1433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +1449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -1437,7 +1460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -1445,7 +1468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +1476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
@@ -1461,15 +1484,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1485,7 +1508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
@@ -1493,7 +1516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1501,7 +1524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>44</v>
       </c>
@@ -1517,7 +1540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>46</v>
       </c>
@@ -1525,17 +1548,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>51</v>
       </c>
@@ -1551,7 +1574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>52</v>
       </c>
@@ -1559,12 +1582,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
@@ -1572,7 +1595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
@@ -1580,7 +1603,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>59</v>
       </c>
@@ -1588,17 +1611,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
@@ -1606,12 +1629,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>65</v>
       </c>
@@ -1619,7 +1642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>67</v>
       </c>
@@ -1627,12 +1650,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>38</v>
       </c>
@@ -1640,7 +1663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>71</v>
       </c>
@@ -1648,7 +1671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>73</v>
       </c>
@@ -1656,7 +1679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>75</v>
       </c>
@@ -1664,7 +1687,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>77</v>
       </c>
@@ -1672,7 +1695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>77</v>
       </c>
@@ -1680,12 +1703,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>77</v>
       </c>
@@ -1693,7 +1716,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>30</v>
       </c>
@@ -1701,7 +1724,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>83</v>
       </c>
@@ -1709,7 +1732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>85</v>
       </c>
@@ -1717,12 +1740,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>30</v>
       </c>
@@ -1738,12 +1761,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>36</v>
       </c>
@@ -1751,7 +1774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +1782,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>30</v>
       </c>
@@ -1767,7 +1790,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>93</v>
       </c>
@@ -1778,7 +1801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1812,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>94</v>
       </c>
@@ -1797,7 +1820,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>43</v>
       </c>
@@ -1808,7 +1831,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>96</v>
       </c>
@@ -1816,7 +1839,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>98</v>
       </c>
@@ -1824,7 +1847,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>41</v>
       </c>
@@ -1835,12 +1858,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>101</v>
       </c>
@@ -1848,7 +1871,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>101</v>
       </c>
@@ -1856,7 +1879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>103</v>
       </c>
@@ -1867,7 +1890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="171" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>105</v>
       </c>
@@ -1875,7 +1898,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>49</v>
       </c>
@@ -1883,7 +1906,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>111</v>
       </c>
@@ -1891,7 +1914,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>30</v>
       </c>
@@ -1899,7 +1922,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>119</v>
       </c>
@@ -1907,12 +1930,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>42014</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>76</v>
       </c>
@@ -1920,7 +1943,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>76</v>
       </c>
@@ -1931,7 +1954,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>124</v>
       </c>
@@ -1942,7 +1965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>126</v>
       </c>
@@ -1950,7 +1973,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>126</v>
       </c>
@@ -1958,13 +1981,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>130</v>
       </c>
@@ -1972,7 +1995,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
         <v>130</v>
       </c>
@@ -1980,7 +2003,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>133</v>
       </c>
@@ -1991,7 +2014,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>133</v>
       </c>
@@ -2002,7 +2025,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>151</v>
       </c>
@@ -2010,7 +2033,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>133</v>
       </c>
@@ -2021,7 +2044,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>138</v>
       </c>
@@ -2032,7 +2055,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>139</v>
       </c>
@@ -2040,7 +2063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>138</v>
       </c>
@@ -2051,7 +2074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>142</v>
       </c>
@@ -2062,15 +2085,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10">
         <v>42045</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>126</v>
       </c>
@@ -2081,7 +2104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>126</v>
       </c>
@@ -2092,12 +2115,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
         <v>42049</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>9</v>
       </c>
@@ -2108,7 +2131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>30</v>
       </c>
@@ -2119,7 +2142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>9</v>
       </c>
@@ -2130,7 +2153,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>18</v>
       </c>
@@ -2141,7 +2164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
         <v>161</v>
       </c>
@@ -2152,7 +2175,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>9</v>
       </c>
@@ -2161,7 +2184,7 @@
       </c>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>161</v>
       </c>
@@ -2172,7 +2195,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>165</v>
       </c>
@@ -2183,7 +2206,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>161</v>
       </c>
@@ -2194,7 +2217,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>18</v>
       </c>
@@ -2203,7 +2226,7 @@
       </c>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>176</v>
       </c>
@@ -2214,16 +2237,16 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
         <v>42050</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>63</v>
       </c>
@@ -2234,7 +2257,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>176</v>
       </c>
@@ -2245,7 +2268,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>176</v>
       </c>
@@ -2254,7 +2277,7 @@
       </c>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>9</v>
       </c>
@@ -2263,7 +2286,7 @@
       </c>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>176</v>
       </c>
@@ -2272,7 +2295,7 @@
       </c>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>30</v>
       </c>
@@ -2283,8 +2306,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2294,8 +2317,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="19"/>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="18"/>
       <c r="B136" s="8" t="s">
         <v>184</v>
       </c>
@@ -2303,8 +2326,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="19"/>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="18"/>
       <c r="B137" s="8" t="s">
         <v>185</v>
       </c>
@@ -2312,8 +2335,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="19"/>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="18"/>
       <c r="B138" s="8" t="s">
         <v>186</v>
       </c>
@@ -2321,7 +2344,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>172</v>
       </c>
@@ -2332,7 +2355,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>176</v>
       </c>
@@ -2341,15 +2364,15 @@
       </c>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
     </row>
-    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10">
         <v>42051</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>189</v>
       </c>
@@ -2357,7 +2380,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
         <v>35</v>
       </c>
@@ -2365,7 +2388,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
         <v>36</v>
       </c>
@@ -2373,36 +2396,36 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="19" t="s">
+    <row r="146" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="19"/>
+    <row r="147" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A147" s="18"/>
       <c r="B147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="19"/>
+    <row r="148" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="18"/>
       <c r="B148" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10">
         <v>42052</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
         <v>196</v>
       </c>
@@ -2410,7 +2433,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
         <v>3</v>
       </c>
@@ -2418,7 +2441,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
         <v>18</v>
       </c>
@@ -2426,7 +2449,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
         <v>201</v>
       </c>
@@ -2434,7 +2457,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
         <v>9</v>
       </c>
@@ -2442,12 +2465,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
         <v>203</v>
       </c>
@@ -2455,21 +2478,21 @@
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
+    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="19"/>
+    <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="18"/>
       <c r="B159" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>30</v>
       </c>
@@ -2481,7 +2504,7 @@
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
     </row>
-    <row r="161" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
         <v>206</v>
       </c>
@@ -2489,8 +2512,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="20" t="s">
+    <row r="162" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="15" t="s">
@@ -2501,8 +2524,8 @@
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
+    <row r="163" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="19"/>
       <c r="B163" s="15" t="s">
         <v>209</v>
       </c>
@@ -2511,7 +2534,7 @@
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
         <v>28</v>
       </c>
@@ -2519,30 +2542,30 @@
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10">
         <v>42053</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="21" t="s">
         <v>214</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
         <v>218</v>
       </c>
@@ -2550,7 +2573,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>221</v>
       </c>
@@ -2558,76 +2581,79 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="22" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
+      <c r="C172" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="22" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="21" t="s">
+    <row r="174" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="23" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="21"/>
-      <c r="B175" s="18" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="25"/>
+      <c r="B175" s="22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10">
         <v>42056</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="19" t="s">
+    <row r="178" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="19"/>
-      <c r="B179" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="20"/>
+      <c r="B179" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
+    <row r="180" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+    <row r="181" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A181" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
+    <row r="182" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A182" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="24" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2651,11 +2677,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="87.625" customWidth="1"/>
+    <col min="2" max="2" width="70.625" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2670,23 +2696,23 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="72.625" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -2704,14 +2730,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.75" customWidth="1"/>
+    <col min="2" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2722,7 +2748,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -2736,7 +2762,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>152</v>
       </c>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="247">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -662,7 +662,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -672,7 +672,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,7 +725,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -741,7 +741,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -756,7 +756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -772,7 +772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -860,6 +860,45 @@
   <si>
     <t>see options review please</t>
   </si>
+  <si>
+    <t>HomeAdapter(I think)</t>
+  </si>
+  <si>
+    <t>FragmentProfile: when GetUserSharePost gets error, the user home info
+must be displayed or when GetBusienssPosts get error, the business
+home info should be displayed. Modify adapter to diplay only header when you get error in mentioned webservices</t>
+  </si>
+  <si>
+    <t>Why GPS is always running?</t>
+  </si>
+  <si>
+    <t>It shouldn't be any blank page in the app. If any webservcies
+gets error, after displaying error message, with clicking on 
+ok button in dialog, user should navigate to the previous page</t>
+  </si>
+  <si>
+    <t>By clicking item in gridview mode, nothing happens! (It should display post info in seprate page)</t>
+  </si>
+  <si>
+    <t>Where did you call GetBlockedUsers?</t>
+  </si>
+  <si>
+    <t>by clicking on "مسدود شده ها" in FragmentFollower, GetBlockedUsers will not run</t>
+  </si>
+  <si>
+    <t>Done. 
+You implement GetBusinessFollowers instead of GetBlockedUsers in 
+FragmentBlockeds.</t>
+  </si>
+  <si>
+    <t>FragmentBlockeds</t>
+  </si>
+  <si>
+    <t>businessId is not passed correctly to the webservice</t>
+  </si>
+  <si>
+    <t>Display result in listview, getResult: line 195</t>
+  </si>
 </sst>
 </file>
 
@@ -869,27 +908,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -938,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -970,8 +1009,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -980,6 +1017,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1287,22 +1327,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="59.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="52.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="70" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1324,7 +1364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1384,7 +1424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1395,7 +1435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1406,12 +1446,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1422,7 +1462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -1433,7 +1473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -1468,7 +1508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1476,7 +1516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
@@ -1484,15 +1524,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
@@ -1500,7 +1540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1508,7 +1548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
@@ -1516,7 +1556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1524,7 +1564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>43</v>
       </c>
@@ -1532,7 +1572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>44</v>
       </c>
@@ -1540,7 +1580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>46</v>
       </c>
@@ -1548,17 +1588,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>49</v>
       </c>
@@ -1566,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>51</v>
       </c>
@@ -1574,7 +1614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>52</v>
       </c>
@@ -1582,12 +1622,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>55</v>
       </c>
@@ -1595,7 +1635,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
@@ -1603,7 +1643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>59</v>
       </c>
@@ -1611,17 +1651,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
@@ -1629,12 +1669,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>65</v>
       </c>
@@ -1642,7 +1682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>67</v>
       </c>
@@ -1650,12 +1690,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>38</v>
       </c>
@@ -1663,7 +1703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>71</v>
       </c>
@@ -1671,7 +1711,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>73</v>
       </c>
@@ -1679,7 +1719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>75</v>
       </c>
@@ -1687,7 +1727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>77</v>
       </c>
@@ -1695,7 +1735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>77</v>
       </c>
@@ -1703,12 +1743,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>77</v>
       </c>
@@ -1716,7 +1756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>30</v>
       </c>
@@ -1724,7 +1764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>83</v>
       </c>
@@ -1732,7 +1772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>85</v>
       </c>
@@ -1740,12 +1780,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>30</v>
       </c>
@@ -1753,7 +1793,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>30</v>
       </c>
@@ -1761,12 +1801,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>36</v>
       </c>
@@ -1774,7 +1814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>30</v>
       </c>
@@ -1782,7 +1822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>30</v>
       </c>
@@ -1790,7 +1830,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>93</v>
       </c>
@@ -1801,7 +1841,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>41</v>
       </c>
@@ -1812,7 +1852,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>94</v>
       </c>
@@ -1820,7 +1860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>43</v>
       </c>
@@ -1831,7 +1871,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>96</v>
       </c>
@@ -1839,7 +1879,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>98</v>
       </c>
@@ -1847,7 +1887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>41</v>
       </c>
@@ -1858,12 +1898,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>101</v>
       </c>
@@ -1871,7 +1911,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>101</v>
       </c>
@@ -1879,7 +1919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>103</v>
       </c>
@@ -1890,7 +1930,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="171" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>105</v>
       </c>
@@ -1898,7 +1938,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>49</v>
       </c>
@@ -1906,7 +1946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>111</v>
       </c>
@@ -1914,7 +1954,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>30</v>
       </c>
@@ -1922,7 +1962,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>119</v>
       </c>
@@ -1930,12 +1970,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>42014</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>76</v>
       </c>
@@ -1943,7 +1983,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>76</v>
       </c>
@@ -1954,7 +1994,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>124</v>
       </c>
@@ -1965,7 +2005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>126</v>
       </c>
@@ -1973,7 +2013,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>126</v>
       </c>
@@ -1981,13 +2021,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>130</v>
       </c>
@@ -1995,7 +2035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>130</v>
       </c>
@@ -2003,7 +2043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>133</v>
       </c>
@@ -2014,7 +2054,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>133</v>
       </c>
@@ -2025,7 +2065,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>151</v>
       </c>
@@ -2033,7 +2073,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>133</v>
       </c>
@@ -2044,7 +2084,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>138</v>
       </c>
@@ -2055,7 +2095,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>139</v>
       </c>
@@ -2063,7 +2103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>138</v>
       </c>
@@ -2074,7 +2114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>142</v>
       </c>
@@ -2085,15 +2125,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>42045</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>126</v>
       </c>
@@ -2104,7 +2144,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>126</v>
       </c>
@@ -2115,12 +2155,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>42049</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2171,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>30</v>
       </c>
@@ -2142,7 +2182,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>9</v>
       </c>
@@ -2153,7 +2193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>18</v>
       </c>
@@ -2164,7 +2204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>161</v>
       </c>
@@ -2175,7 +2215,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>9</v>
       </c>
@@ -2184,7 +2224,7 @@
       </c>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>161</v>
       </c>
@@ -2195,7 +2235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>165</v>
       </c>
@@ -2206,7 +2246,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>161</v>
       </c>
@@ -2217,7 +2257,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>18</v>
       </c>
@@ -2226,7 +2266,7 @@
       </c>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>176</v>
       </c>
@@ -2237,16 +2277,16 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>42050</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>63</v>
       </c>
@@ -2257,7 +2297,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>176</v>
       </c>
@@ -2268,7 +2308,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>176</v>
       </c>
@@ -2277,7 +2317,7 @@
       </c>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2326,7 @@
       </c>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>176</v>
       </c>
@@ -2295,7 +2335,7 @@
       </c>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>30</v>
       </c>
@@ -2306,8 +2346,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2317,8 +2357,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="18"/>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="24"/>
       <c r="B136" s="8" t="s">
         <v>184</v>
       </c>
@@ -2326,8 +2366,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="18"/>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="24"/>
       <c r="B137" s="8" t="s">
         <v>185</v>
       </c>
@@ -2335,8 +2375,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="18"/>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="24"/>
       <c r="B138" s="8" t="s">
         <v>186</v>
       </c>
@@ -2344,7 +2384,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>172</v>
       </c>
@@ -2355,7 +2395,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>176</v>
       </c>
@@ -2364,15 +2404,15 @@
       </c>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
     </row>
-    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>42051</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>189</v>
       </c>
@@ -2380,7 +2420,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>35</v>
       </c>
@@ -2388,7 +2428,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>36</v>
       </c>
@@ -2396,36 +2436,36 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="18" t="s">
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A147" s="18"/>
+    <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A147" s="24"/>
       <c r="B147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="18"/>
+    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="24"/>
       <c r="B148" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>42052</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>196</v>
       </c>
@@ -2433,7 +2473,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>3</v>
       </c>
@@ -2441,7 +2481,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>18</v>
       </c>
@@ -2449,7 +2489,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>201</v>
       </c>
@@ -2457,7 +2497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>9</v>
       </c>
@@ -2465,12 +2505,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>203</v>
       </c>
@@ -2478,21 +2518,21 @@
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="18" t="s">
+    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="18"/>
+    <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="24"/>
       <c r="B159" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>30</v>
       </c>
@@ -2504,7 +2544,7 @@
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
     </row>
-    <row r="161" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>206</v>
       </c>
@@ -2512,8 +2552,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="19" t="s">
+    <row r="162" spans="1:6" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="15" t="s">
@@ -2524,8 +2564,8 @@
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="19"/>
+    <row r="163" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="25"/>
       <c r="B163" s="15" t="s">
         <v>209</v>
       </c>
@@ -2534,7 +2574,7 @@
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>28</v>
       </c>
@@ -2542,30 +2582,30 @@
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>42053</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="21" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="19" t="s">
         <v>214</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>218</v>
       </c>
@@ -2573,7 +2613,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>221</v>
       </c>
@@ -2581,67 +2621,67 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="22" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B172" s="22" t="s">
+      <c r="B172" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="22" t="s">
+      <c r="C172" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="22" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B173" s="22" t="s">
+      <c r="B173" s="20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="25" t="s">
+    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B174" s="23" t="s">
+      <c r="B174" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="25"/>
-      <c r="B175" s="22" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="26"/>
+      <c r="B175" s="20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>42056</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="20" t="s">
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="20"/>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="23"/>
       <c r="B179" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="21" t="s">
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
         <v>231</v>
       </c>
@@ -2649,16 +2689,75 @@
         <v>233</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A182" s="21" t="s">
+    <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="22" t="s">
         <v>234</v>
       </c>
     </row>
+    <row r="184" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10">
+        <v>42057</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="24"/>
+      <c r="B186" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A189" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="24"/>
+      <c r="B191" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A190:A191"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A146:A148"/>
@@ -2677,11 +2776,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.625" customWidth="1"/>
-    <col min="2" max="2" width="70.625" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="87.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2696,23 +2795,23 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.625" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -2730,14 +2829,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.75" customWidth="1"/>
-    <col min="2" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2748,7 +2847,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -2762,7 +2861,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="260">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -898,6 +898,47 @@
   </si>
   <si>
     <t>Display result in listview, getResult: line 195</t>
+  </si>
+  <si>
+    <t>Implement RequestConfirmation in View layout</t>
+  </si>
+  <si>
+    <t>It is the second time I mention it!</t>
+  </si>
+  <si>
+    <t>Add sent comment to listview</t>
+  </si>
+  <si>
+    <t>Clear comment edittext after successfully executing SendComment webservice</t>
+  </si>
+  <si>
+    <t>update post comment number in adapter after successfully executing
+ SendComment webservice</t>
+  </si>
+  <si>
+    <t>In unseen.xlsx file for " Comment on post" you said:
+«کامنت قرار میگیرد اما تعداد کامنت ها به درستی نمایش داده نمیشوند»</t>
+  </si>
+  <si>
+    <t>what did you mean?</t>
+  </si>
+  <si>
+    <t>Where did you call GetAllCommentNotifications?</t>
+  </si>
+  <si>
+    <t>Loadmore data for business' post when business has no more posts</t>
+  </si>
+  <si>
+    <t>How do you rate a business?!!!</t>
+  </si>
+  <si>
+    <t>there is no option in View layout</t>
+  </si>
+  <si>
+    <t>ForceClose after successfully executing Like webservice</t>
+  </si>
+  <si>
+    <t>Implement Unlike</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1022,6 +1063,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197:XFD197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,10 +2801,89 @@
         <v>246</v>
       </c>
     </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="24"/>
+      <c r="B194" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="24"/>
+      <c r="B195" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A193:A195"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A146:A148"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="261">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>Implement Unlike</t>
+  </si>
+  <si>
+    <t>getResult: line 148</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197:XFD197"/>
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,6 +2880,14 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -1021,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1062,16 +1062,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,7 +1381,7 @@
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2398,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2408,7 +2409,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
+      <c r="A136" s="26"/>
       <c r="B136" s="8" t="s">
         <v>184</v>
       </c>
@@ -2417,7 +2418,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
+      <c r="A137" s="26"/>
       <c r="B137" s="8" t="s">
         <v>185</v>
       </c>
@@ -2426,7 +2427,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
+      <c r="A138" s="26"/>
       <c r="B138" s="8" t="s">
         <v>186</v>
       </c>
@@ -2487,21 +2488,21 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
+    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="26"/>
       <c r="B147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="26"/>
       <c r="B148" s="2" t="s">
         <v>195</v>
       </c>
@@ -2569,7 +2570,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="24" t="s">
+      <c r="A158" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2577,7 +2578,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24"/>
+      <c r="A159" s="26"/>
       <c r="B159" s="2" t="s">
         <v>205</v>
       </c>
@@ -2603,7 +2604,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="15" t="s">
@@ -2615,7 +2616,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
+      <c r="A163" s="28"/>
       <c r="B163" s="15" t="s">
         <v>209</v>
       </c>
@@ -2690,8 +2691,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="26" t="s">
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="29" t="s">
         <v>226</v>
       </c>
       <c r="B174" s="21" t="s">
@@ -2699,7 +2700,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="20" t="s">
         <v>228</v>
       </c>
@@ -2710,7 +2711,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="22" t="s">
@@ -2718,7 +2719,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="23"/>
+      <c r="A179" s="27"/>
       <c r="B179" s="16" t="s">
         <v>230</v>
       </c>
@@ -2753,7 +2754,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="24" t="s">
+      <c r="A185" s="26" t="s">
         <v>236</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -2761,8 +2762,8 @@
       </c>
     </row>
     <row r="186" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="24"/>
-      <c r="B186" s="2" t="s">
+      <c r="A186" s="26"/>
+      <c r="B186" s="22" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2777,32 +2778,33 @@
       </c>
     </row>
     <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
+      <c r="A189" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="24"/>
-      <c r="B191" s="18" t="s">
+      <c r="A191" s="27"/>
+      <c r="B191" s="23" t="s">
         <v>246</v>
       </c>
+      <c r="C191" s="23"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
@@ -2813,7 +2815,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="24" t="s">
+      <c r="A193" s="26" t="s">
         <v>226</v>
       </c>
       <c r="B193" s="18" t="s">
@@ -2821,13 +2823,13 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
+      <c r="A194" s="26"/>
       <c r="B194" s="18" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
+      <c r="A195" s="26"/>
       <c r="B195" s="2" t="s">
         <v>251</v>
       </c>
@@ -2854,18 +2856,18 @@
       </c>
     </row>
     <row r="199" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="27" t="s">
+      <c r="A199" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B199" s="28" t="s">
+      <c r="B199" s="25" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
+      <c r="A200" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="23" t="s">
         <v>257</v>
       </c>
     </row>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185:A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,9 +2768,10 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="23" t="s">
         <v>238</v>
       </c>
+      <c r="B187" s="23"/>
     </row>
     <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185:A186"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199:B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,9 +2844,10 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
+      <c r="A197" s="23" t="s">
         <v>241</v>
       </c>
+      <c r="B197" s="23"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199:B199"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,22 +2816,22 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="26" t="s">
+      <c r="A193" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="23" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="26"/>
-      <c r="B194" s="18" t="s">
+      <c r="A194" s="27"/>
+      <c r="B194" s="23" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="26"/>
-      <c r="B195" s="2" t="s">
+      <c r="A195" s="27"/>
+      <c r="B195" s="15" t="s">
         <v>251</v>
       </c>
     </row>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,10 +2836,10 @@
       </c>
     </row>
     <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B196" s="18" t="s">
+      <c r="B196" s="23" t="s">
         <v>253</v>
       </c>
     </row>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="264">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -942,6 +942,15 @@
   </si>
   <si>
     <t>getResult: line 148</t>
+  </si>
+  <si>
+    <t>ActivityMain</t>
+  </si>
+  <si>
+    <t>do not exit with onBackPressed</t>
+  </si>
+  <si>
+    <t>check itmes.size to execute loadMoreData</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,6 +2897,19 @@
       </c>
       <c r="B203" s="18" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="18" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -960,6 +960,27 @@
   </si>
   <si>
     <t>showCommentEditPopup: line 204: implement updateComment webservice</t>
+  </si>
+  <si>
+    <t>با لمس نوتیفیکیشن intent داده شده باز نمیشود. Intent مربوط به actMain داده شده است. لطفأ بررسی کنید.</t>
+  </si>
+  <si>
+    <t>will be done……</t>
+  </si>
+  <si>
+    <t>I'll talk with you about this</t>
+  </si>
+  <si>
+    <t>why? I think we've talked before and decided to make them un cancelable</t>
+  </si>
+  <si>
+    <t>should be tested, if you can, test it please</t>
+  </si>
+  <si>
+    <t>What do you mean ? I've reimplemented it, please check if it's working right ??</t>
+  </si>
+  <si>
+    <t>I get Undefined error when using unlike!!</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1026,6 +1047,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1039,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1061,7 +1094,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1081,16 +1113,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1397,15 +1433,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="70" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -2415,7 +2451,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2426,7 +2462,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
+      <c r="A136" s="23"/>
       <c r="B136" s="8" t="s">
         <v>184</v>
       </c>
@@ -2435,7 +2471,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="8" t="s">
         <v>185</v>
       </c>
@@ -2444,7 +2480,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="8" t="s">
         <v>186</v>
       </c>
@@ -2505,21 +2541,21 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
+    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="23"/>
       <c r="B147" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="23"/>
       <c r="B148" s="2" t="s">
         <v>195</v>
       </c>
@@ -2587,7 +2623,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="24" t="s">
+      <c r="A158" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2595,16 +2631,16 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+    <row r="160" spans="1:6" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C160" s="12"/>
@@ -2613,18 +2649,18 @@
       <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="16" t="s">
         <v>206</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C162" s="12"/>
@@ -2632,9 +2668,9 @@
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="14" t="s">
         <v>209</v>
       </c>
       <c r="C163" s="12"/>
@@ -2656,69 +2692,75 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="22" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="15" t="s">
         <v>216</v>
       </c>
+      <c r="B168" s="15" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="15" t="s">
         <v>217</v>
       </c>
+      <c r="B169" s="15" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="15" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B172" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="19" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B173" s="20" t="s">
+      <c r="B173" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B174" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="26"/>
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="19" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2728,40 +2770,40 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B178" s="21" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="23"/>
-      <c r="B179" s="16" t="s">
+      <c r="A179" s="24"/>
+      <c r="B179" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="19" t="s">
+      <c r="A180" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="21" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="16" t="s">
+      <c r="A181" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="19" t="s">
+      <c r="A182" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="21" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2774,31 +2816,36 @@
       <c r="A185" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="20" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C185" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="24"/>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="21" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="22" t="s">
         <v>238</v>
       </c>
+      <c r="B187" s="22"/>
     </row>
     <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="21" t="s">
         <v>239</v>
       </c>
+      <c r="B188" s="22"/>
     </row>
     <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
+      <c r="A189" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="22" t="s">
         <v>242</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -2809,7 +2856,7 @@
       <c r="A190" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="22" t="s">
         <v>245</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -2818,123 +2865,146 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="24"/>
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="22" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
+      <c r="A192" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="15" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="22" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="24"/>
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="24"/>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="14" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="C195" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B196" s="18" t="s">
+      <c r="B196" s="22" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="22" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
+      <c r="B197" s="22"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B198" s="18" t="s">
+      <c r="B198" s="28" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="27" t="s">
+      <c r="C198" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B199" s="28" t="s">
+      <c r="B199" s="30" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
+      <c r="C199" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="18" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B201" s="18" t="s">
+      <c r="B201" s="22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="18" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="27" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
+      <c r="B202" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="22" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="22" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="18" t="s">
+      <c r="B205" s="22"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B206" s="15" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="18" t="s">
+      <c r="C206" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B207" s="18" t="s">
+      <c r="B207" s="19" t="s">
         <v>266</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3046,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="275">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -492,15 +492,6 @@
   </si>
   <si>
     <t>close change password dialog after submit and displaying second dialog</t>
-  </si>
-  <si>
-    <t>Test UnFollowBusiness webservice</t>
-  </si>
-  <si>
-    <t>Test RequestCancelFriendship</t>
-  </si>
-  <si>
-    <t>Uncomment AlarmManager in AcitivityMain</t>
   </si>
   <si>
     <t xml:space="preserve">Done </t>
@@ -981,6 +972,18 @@
   </si>
   <si>
     <t>I get Undefined error when using unlike!!</t>
+  </si>
+  <si>
+    <t>unfollow</t>
+  </si>
+  <si>
+    <t>unfriend</t>
+  </si>
+  <si>
+    <t>unllike</t>
+  </si>
+  <si>
+    <t>cancelShare</t>
   </si>
 </sst>
 </file>
@@ -1112,12 +1115,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1127,6 +1124,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1433,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>103</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>123</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2155,7 +2158,7 @@
         <v>134</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2166,15 +2169,15 @@
         <v>135</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,7 +2188,7 @@
         <v>136</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,7 +2199,7 @@
         <v>137</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,7 +2218,7 @@
         <v>141</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,7 +2229,7 @@
         <v>143</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>145</v>
@@ -2280,7 +2283,7 @@
         <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>145</v>
@@ -2291,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>145</v>
@@ -2302,7 +2305,7 @@
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>145</v>
@@ -2310,10 +2313,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>145</v>
@@ -2324,16 +2327,16 @@
         <v>9</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>145</v>
@@ -2341,10 +2344,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>145</v>
@@ -2352,13 +2355,13 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2366,19 +2369,19 @@
         <v>18</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2395,18 +2398,18 @@
         <v>63</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>145</v>
@@ -2414,10 +2417,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="C131" s="8"/>
     </row>
@@ -2426,16 +2429,16 @@
         <v>9</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C133" s="5"/>
     </row>
@@ -2444,45 +2447,45 @@
         <v>30</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="23"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="23"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="23"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>145</v>
@@ -2490,10 +2493,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>145</v>
@@ -2501,10 +2504,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C140" s="8"/>
     </row>
@@ -2518,10 +2521,10 @@
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2529,7 +2532,7 @@
         <v>35</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2537,27 +2540,27 @@
         <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="29"/>
+      <c r="B147" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="29"/>
+      <c r="B148" s="2" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="23"/>
-      <c r="B147" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="23"/>
-      <c r="B148" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2571,10 +2574,10 @@
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2582,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2590,15 +2593,15 @@
         <v>18</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2606,34 +2609,34 @@
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
     <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="23"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2641,7 +2644,7 @@
         <v>30</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
@@ -2650,18 +2653,18 @@
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
@@ -2669,9 +2672,9 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
+      <c r="A163" s="30"/>
       <c r="B163" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
@@ -2683,7 +2686,7 @@
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2693,75 +2696,75 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B174" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B173" s="19" t="s">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="31"/>
+      <c r="B175" s="19" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
-      <c r="B175" s="19" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2770,33 +2773,33 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="24" t="s">
+      <c r="A178" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="24"/>
+      <c r="A179" s="28"/>
       <c r="B179" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2804,7 +2807,7 @@
         <v>30</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2813,138 +2816,138 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="24" t="s">
-        <v>236</v>
+      <c r="A185" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="B185" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="28"/>
+      <c r="B186" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="24"/>
-      <c r="B186" s="21" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B187" s="22"/>
     </row>
     <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B188" s="22"/>
     </row>
     <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B190" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B190" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="24"/>
+      <c r="A191" s="28"/>
       <c r="B191" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="28"/>
+      <c r="B194" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B192" s="15" t="s">
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="28"/>
+      <c r="B195" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C192" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B193" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
-      <c r="B194" s="22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
-      <c r="B195" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="C195" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B197" s="22"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B198" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C198" s="28" t="s">
-        <v>267</v>
+      <c r="A198" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B198" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="29" t="s">
+      <c r="A199" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B199" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="C199" s="31" t="s">
-        <v>272</v>
+      <c r="B199" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,15 +2955,15 @@
         <v>28</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B202" s="27" t="s">
-        <v>273</v>
+      <c r="A202" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,43 +2971,43 @@
         <v>0</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B205" s="22"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3043,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,17 +3060,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3100,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1">
         <v>8</v>
@@ -3103,7 +3111,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>820</v>
@@ -3112,12 +3120,12 @@
         <v>1130</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>1130</v>
@@ -3126,7 +3134,7 @@
         <v>1610</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
-    <sheet name="Aghili" sheetId="2" r:id="rId2"/>
-    <sheet name="Kaveh" sheetId="3" r:id="rId3"/>
-    <sheet name="Me&amp;Khl" sheetId="4" r:id="rId4"/>
+    <sheet name="Kaveh" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="294">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -500,9 +498,6 @@
     <t>Close all  dialogs in getError()</t>
   </si>
   <si>
-    <t xml:space="preserve">check Khalili ToDo </t>
-  </si>
-  <si>
     <t>tested just in getBusinessHomeInfo</t>
   </si>
   <si>
@@ -513,9 +508,6 @@
   </si>
   <si>
     <t>business' about isn't displayed</t>
-  </si>
-  <si>
-    <t>launch server</t>
   </si>
   <si>
     <t>how do you display  description for business?</t>
@@ -550,12 +542,6 @@
   </si>
   <si>
     <t xml:space="preserve">display success message and back </t>
-  </si>
-  <si>
-    <t>from No 101 to No 109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from No 116 </t>
   </si>
   <si>
     <t>Webservice bug</t>
@@ -974,16 +960,94 @@
     <t>I get Undefined error when using unlike!!</t>
   </si>
   <si>
-    <t>unfollow</t>
-  </si>
-  <si>
-    <t>unfriend</t>
-  </si>
-  <si>
-    <t>unllike</t>
-  </si>
-  <si>
-    <t>cancelShare</t>
+    <t>Kvh: I tested it. The problem is still remained!
+Let me explain the current situation. Gridview's header attached to the gridview and will
+be initialized after getting the result of getUserHomeInfo but will not be displayed when
+getSharedPost returns null as result, because you set the adapter after getting result from getSharedPosts. Now, I suggest set the adapter
+with a header and an empty post( a post without images, description, etc) when you get the result of getUserHomeInfo
+and then after getting result from getSharePosts update the adapter!</t>
+  </si>
+  <si>
+    <t>check GetLastComment to return last comment</t>
+  </si>
+  <si>
+    <t>implement Google Analytic</t>
+  </si>
+  <si>
+    <t>implement cancelShare</t>
+  </si>
+  <si>
+    <t>implement AccessToken</t>
+  </si>
+  <si>
+    <t>Display camera fast</t>
+  </si>
+  <si>
+    <t>change getUserReview to get existing rate reviews and display rate with no text</t>
+  </si>
+  <si>
+    <t>GetLastCommentNotification</t>
+  </si>
+  <si>
+    <t>check the owner of the comment is the owner
+of the post, if it is, do not display notification</t>
+  </si>
+  <si>
+    <t>view fault</t>
+  </si>
+  <si>
+    <t>FragmentProfile: FollowBusiness</t>
+  </si>
+  <si>
+    <t>Change follow button to the green button after successfully webservice executing</t>
+  </si>
+  <si>
+    <t>There is no option to unfollow business in view</t>
+  </si>
+  <si>
+    <t>getSharePost: should have isLiked&amp;isReported</t>
+  </si>
+  <si>
+    <t>getTimeLinePosts: should have isLiked&amp;isReported&amp;isShared</t>
+  </si>
+  <si>
+    <t>Display progress dialog while followBusiness webservice is executing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change all image size where you directly enter integer value. </t>
+  </si>
+  <si>
+    <t>use Image_M.getImageSize(Image_M.ImageSize.Large) for example</t>
+  </si>
+  <si>
+    <t>There is no option to unfriend in view</t>
+  </si>
+  <si>
+    <t>FragmentProfile: friendship status</t>
+  </si>
+  <si>
+    <t>Display progress dialog while requestFriendship webservice is executing</t>
+  </si>
+  <si>
+    <t>unComment option.java</t>
+  </si>
+  <si>
+    <t>Delete comment</t>
+  </si>
+  <si>
+    <t>Update the comment list after deleting comment</t>
+  </si>
+  <si>
+    <t>You display showCommentDeletePopup instead of showCommentDeleteFromMyBusinessPopup
+when the business owner wants to delete a comment on one of his posts</t>
+  </si>
+  <si>
+    <t>After requesting friend ship with a user, friendship status button shouldn't be green, because 
+friendship status is REQUEST_SENT. After accepting the requested user, the status will be 
+FRIEND and that time, the button should be green</t>
+  </si>
+  <si>
+    <t>getResutl: line 215</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1083,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +1126,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1075,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1115,6 +1185,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1130,6 +1201,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="B210" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,7 +1523,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1471,15 +1545,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +1589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1523,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1531,7 +1608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1542,7 +1619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1553,12 +1630,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1569,7 +1646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -1580,7 +1657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1588,7 +1665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +1673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2169,7 +2246,7 @@
         <v>135</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2177,7 +2254,7 @@
         <v>148</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,7 +2265,7 @@
         <v>136</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,7 +2276,7 @@
         <v>137</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,7 +2306,7 @@
         <v>143</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>145</v>
@@ -2283,7 +2360,7 @@
         <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>145</v>
@@ -2294,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>145</v>
@@ -2305,7 +2382,7 @@
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>145</v>
@@ -2313,10 +2390,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>145</v>
@@ -2327,16 +2404,16 @@
         <v>9</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>145</v>
@@ -2344,10 +2421,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>145</v>
@@ -2355,13 +2432,13 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B124" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,19 +2446,19 @@
         <v>18</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,18 +2475,18 @@
         <v>63</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>145</v>
@@ -2417,10 +2494,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C131" s="8"/>
     </row>
@@ -2429,16 +2506,16 @@
         <v>9</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C133" s="5"/>
     </row>
@@ -2447,45 +2524,45 @@
         <v>30</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
+      <c r="A136" s="30"/>
       <c r="B136" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
+      <c r="A137" s="30"/>
       <c r="B137" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
+      <c r="A138" s="30"/>
       <c r="B138" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>145</v>
@@ -2493,10 +2570,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>145</v>
@@ -2504,10 +2581,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C140" s="8"/>
     </row>
@@ -2521,10 +2598,10 @@
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2532,7 +2609,7 @@
         <v>35</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2540,27 +2617,27 @@
         <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="29" t="s">
+      <c r="A146" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
+      <c r="A147" s="30"/>
       <c r="B147" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
+      <c r="A148" s="30"/>
       <c r="B148" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2574,10 +2651,10 @@
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2585,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2593,15 +2670,15 @@
         <v>18</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2609,34 +2686,34 @@
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
+      <c r="A159" s="30"/>
       <c r="B159" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2644,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
@@ -2653,18 +2730,18 @@
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" s="14" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
@@ -2672,9 +2749,9 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="30"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
@@ -2686,7 +2763,7 @@
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2696,75 +2773,75 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="32"/>
+      <c r="B175" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="31"/>
-      <c r="B175" s="19" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2773,33 +2850,33 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="28" t="s">
+      <c r="A178" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="28"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2807,7 +2884,7 @@
         <v>30</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2815,203 +2892,291 @@
         <v>42057</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="28" t="s">
+    <row r="185" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A185" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="29"/>
+      <c r="B186" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="28"/>
-      <c r="B186" s="21" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B187" s="22"/>
     </row>
     <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B188" s="22"/>
     </row>
     <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B190" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="B189" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B190" s="22" t="s">
-        <v>242</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="28"/>
+      <c r="A191" s="29"/>
       <c r="B191" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="29"/>
+      <c r="B194" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="29"/>
+      <c r="B195" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="C195" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C192" s="15" t="s">
+      <c r="B196" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B197" s="22"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D198" s="33"/>
+    </row>
+    <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C199" s="28" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B193" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="28"/>
-      <c r="B194" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="28"/>
-      <c r="B195" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="21" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B196" s="22" t="s">
+      <c r="B200" s="22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B197" s="22"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="B198" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C198" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B199" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C199" s="27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B200" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B202" s="23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B205" s="22"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="22" t="s">
+      <c r="B206" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B204" s="22" t="s">
+      <c r="B207" s="19" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B205" s="22"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C206" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="B207" s="19" t="s">
-        <v>263</v>
-      </c>
       <c r="C207" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="10">
+        <v>42057</v>
+      </c>
+      <c r="B209" s="10">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="30"/>
+      <c r="C211" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="30"/>
+      <c r="C212" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="30"/>
+      <c r="C214" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B215" s="30"/>
+      <c r="C215" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="35"/>
+      <c r="C218" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B219" s="35"/>
+      <c r="C219" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="B213:B215"/>
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
@@ -3029,112 +3194,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="87.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1">
-        <v>8</v>
-      </c>
-      <c r="C1">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2">
-        <v>820</v>
-      </c>
-      <c r="C2">
-        <v>1130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3">
-        <v>1130</v>
-      </c>
-      <c r="C3">
-        <v>1610</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
+      <c r="B7" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -939,16 +939,10 @@
     <t>showCommentEditPopup: line 204: implement updateComment webservice</t>
   </si>
   <si>
-    <t>با لمس نوتیفیکیشن intent داده شده باز نمیشود. Intent مربوط به actMain داده شده است. لطفأ بررسی کنید.</t>
-  </si>
-  <si>
     <t>will be done……</t>
   </si>
   <si>
     <t>I'll talk with you about this</t>
-  </si>
-  <si>
-    <t>why? I think we've talked before and decided to make them un cancelable</t>
   </si>
   <si>
     <t>should be tested, if you can, test it please</t>
@@ -1048,6 +1042,14 @@
   </si>
   <si>
     <t>getResutl: line 215</t>
+  </si>
+  <si>
+    <t>با لمس نوتیفیکیشن intent داده شده باز نمیشود. Intent مربوط به actMain داده شده است. لطفأ بررسی کنید.
+Kvh: I'm working on it</t>
+  </si>
+  <si>
+    <t>why? I think we've talked before and decided to make them un cancelable
+Kvh: I talke to Mr. Reyhani and He said all dialogs should be cancelable!</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1195,15 +1197,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1510,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B210" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+    <sheetView tabSelected="1" topLeftCell="B205" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,8 +1557,8 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>276</v>
+      <c r="D3" s="30" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,7 +2536,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2542,7 +2547,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2551,7 +2556,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="30"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2560,7 +2565,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="30"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2621,7 +2626,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2629,13 +2634,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="30"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="30"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
@@ -2703,7 +2708,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2711,7 +2716,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="30"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2737,7 +2742,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="31" t="s">
+      <c r="A162" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="14" t="s">
@@ -2749,7 +2754,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="31"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="14" t="s">
         <v>202</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>209</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -2792,7 +2797,7 @@
         <v>210</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -2831,7 +2836,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="35" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="20" t="s">
@@ -2839,7 +2844,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="32"/>
+      <c r="A175" s="35"/>
       <c r="B175" s="19" t="s">
         <v>221</v>
       </c>
@@ -2850,7 +2855,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="29" t="s">
+      <c r="A178" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="21" t="s">
@@ -2858,7 +2863,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="29"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="15" t="s">
         <v>223</v>
       </c>
@@ -2893,18 +2898,18 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A185" s="29" t="s">
+      <c r="A185" s="33" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="20" t="s">
         <v>230</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="29"/>
+      <c r="A186" s="33"/>
       <c r="B186" s="21" t="s">
         <v>233</v>
       </c>
@@ -2933,7 +2938,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="29" t="s">
+      <c r="A190" s="33" t="s">
         <v>237</v>
       </c>
       <c r="B190" s="22" t="s">
@@ -2944,7 +2949,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
+      <c r="A191" s="33"/>
       <c r="B191" s="22" t="s">
         <v>239</v>
       </c>
@@ -2957,11 +2962,11 @@
         <v>241</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="29" t="s">
+      <c r="A193" s="33" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="22" t="s">
@@ -2969,18 +2974,18 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
+      <c r="A194" s="33"/>
       <c r="B194" s="22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="29"/>
+      <c r="A195" s="33"/>
       <c r="B195" s="14" t="s">
         <v>244</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2997,17 +3002,17 @@
       </c>
       <c r="B197" s="22"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
         <v>247</v>
       </c>
       <c r="B198" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="C198" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="D198" s="33"/>
+      <c r="C198" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D198" s="29"/>
     </row>
     <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="26" t="s">
@@ -3017,7 +3022,7 @@
         <v>248</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,7 +3046,7 @@
         <v>252</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3066,15 +3071,15 @@
       </c>
       <c r="B205" s="22"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>257</v>
       </c>
       <c r="B206" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C206" s="15" t="s">
-        <v>263</v>
+      <c r="C206" s="14" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3085,7 +3090,7 @@
         <v>259</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="209" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3097,71 +3102,71 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="31"/>
+      <c r="C211" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="31"/>
+      <c r="C212" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="30"/>
-      <c r="C211" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="30"/>
-      <c r="C212" s="23" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="30" t="s">
-        <v>286</v>
+      <c r="B213" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="30"/>
+      <c r="B214" s="31"/>
       <c r="C214" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="215" spans="1:3" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B215" s="30"/>
+      <c r="B215" s="31"/>
       <c r="C215" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C216" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="35" t="s">
+      <c r="B217" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="32"/>
+      <c r="C218" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B219" s="32"/>
+      <c r="C219" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C217" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="35"/>
-      <c r="C218" s="23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B219" s="35"/>
-      <c r="C219" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,23 +3174,23 @@
         <v>49</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A174:A175"/>
     <mergeCell ref="B210:B212"/>
     <mergeCell ref="B217:B219"/>
     <mergeCell ref="B213:B215"/>
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A174:A175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3208,55 +3213,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
-    <sheet name="Aghili" sheetId="2" r:id="rId2"/>
-    <sheet name="Kaveh" sheetId="3" r:id="rId3"/>
-    <sheet name="Me&amp;Khl" sheetId="4" r:id="rId4"/>
+    <sheet name="Kaveh" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="294">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -494,24 +492,12 @@
     <t>close change password dialog after submit and displaying second dialog</t>
   </si>
   <si>
-    <t>Test UnFollowBusiness webservice</t>
-  </si>
-  <si>
-    <t>Test RequestCancelFriendship</t>
-  </si>
-  <si>
-    <t>Uncomment AlarmManager in AcitivityMain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Done </t>
   </si>
   <si>
     <t>Close all  dialogs in getError()</t>
   </si>
   <si>
-    <t xml:space="preserve">check Khalili ToDo </t>
-  </si>
-  <si>
     <t>tested just in getBusinessHomeInfo</t>
   </si>
   <si>
@@ -522,9 +508,6 @@
   </si>
   <si>
     <t>business' about isn't displayed</t>
-  </si>
-  <si>
-    <t>launch server</t>
   </si>
   <si>
     <t>how do you display  description for business?</t>
@@ -559,12 +542,6 @@
   </si>
   <si>
     <t xml:space="preserve">display success message and back </t>
-  </si>
-  <si>
-    <t>from No 101 to No 109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from No 116 </t>
   </si>
   <si>
     <t>Webservice bug</t>
@@ -962,18 +939,12 @@
     <t>showCommentEditPopup: line 204: implement updateComment webservice</t>
   </si>
   <si>
-    <t>با لمس نوتیفیکیشن intent داده شده باز نمیشود. Intent مربوط به actMain داده شده است. لطفأ بررسی کنید.</t>
-  </si>
-  <si>
     <t>will be done……</t>
   </si>
   <si>
     <t>I'll talk with you about this</t>
   </si>
   <si>
-    <t>why? I think we've talked before and decided to make them un cancelable</t>
-  </si>
-  <si>
     <t>should be tested, if you can, test it please</t>
   </si>
   <si>
@@ -981,6 +952,104 @@
   </si>
   <si>
     <t>I get Undefined error when using unlike!!</t>
+  </si>
+  <si>
+    <t>Kvh: I tested it. The problem is still remained!
+Let me explain the current situation. Gridview's header attached to the gridview and will
+be initialized after getting the result of getUserHomeInfo but will not be displayed when
+getSharedPost returns null as result, because you set the adapter after getting result from getSharedPosts. Now, I suggest set the adapter
+with a header and an empty post( a post without images, description, etc) when you get the result of getUserHomeInfo
+and then after getting result from getSharePosts update the adapter!</t>
+  </si>
+  <si>
+    <t>check GetLastComment to return last comment</t>
+  </si>
+  <si>
+    <t>implement Google Analytic</t>
+  </si>
+  <si>
+    <t>implement cancelShare</t>
+  </si>
+  <si>
+    <t>implement AccessToken</t>
+  </si>
+  <si>
+    <t>Display camera fast</t>
+  </si>
+  <si>
+    <t>change getUserReview to get existing rate reviews and display rate with no text</t>
+  </si>
+  <si>
+    <t>GetLastCommentNotification</t>
+  </si>
+  <si>
+    <t>check the owner of the comment is the owner
+of the post, if it is, do not display notification</t>
+  </si>
+  <si>
+    <t>view fault</t>
+  </si>
+  <si>
+    <t>FragmentProfile: FollowBusiness</t>
+  </si>
+  <si>
+    <t>Change follow button to the green button after successfully webservice executing</t>
+  </si>
+  <si>
+    <t>There is no option to unfollow business in view</t>
+  </si>
+  <si>
+    <t>getSharePost: should have isLiked&amp;isReported</t>
+  </si>
+  <si>
+    <t>getTimeLinePosts: should have isLiked&amp;isReported&amp;isShared</t>
+  </si>
+  <si>
+    <t>Display progress dialog while followBusiness webservice is executing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change all image size where you directly enter integer value. </t>
+  </si>
+  <si>
+    <t>use Image_M.getImageSize(Image_M.ImageSize.Large) for example</t>
+  </si>
+  <si>
+    <t>There is no option to unfriend in view</t>
+  </si>
+  <si>
+    <t>FragmentProfile: friendship status</t>
+  </si>
+  <si>
+    <t>Display progress dialog while requestFriendship webservice is executing</t>
+  </si>
+  <si>
+    <t>unComment option.java</t>
+  </si>
+  <si>
+    <t>Delete comment</t>
+  </si>
+  <si>
+    <t>Update the comment list after deleting comment</t>
+  </si>
+  <si>
+    <t>You display showCommentDeletePopup instead of showCommentDeleteFromMyBusinessPopup
+when the business owner wants to delete a comment on one of his posts</t>
+  </si>
+  <si>
+    <t>After requesting friend ship with a user, friendship status button shouldn't be green, because 
+friendship status is REQUEST_SENT. After accepting the requested user, the status will be 
+FRIEND and that time, the button should be green</t>
+  </si>
+  <si>
+    <t>getResutl: line 215</t>
+  </si>
+  <si>
+    <t>با لمس نوتیفیکیشن intent داده شده باز نمیشود. Intent مربوط به actMain داده شده است. لطفأ بررسی کنید.
+Kvh: I'm working on it</t>
+  </si>
+  <si>
+    <t>why? I think we've talked before and decided to make them un cancelable
+Kvh: I talke to Mr. Reyhani and He said all dialogs should be cancelable!</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,6 +1128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1072,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1113,11 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1127,6 +1197,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+    <sheetView tabSelected="1" topLeftCell="B205" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1528,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1468,15 +1550,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1487,7 +1572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -1498,7 +1583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1550,12 +1635,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1566,7 +1651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -1577,7 +1662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1585,7 +1670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2023,7 +2108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>103</v>
       </c>
@@ -2095,7 +2180,7 @@
         <v>123</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2155,7 +2240,7 @@
         <v>134</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2166,15 +2251,15 @@
         <v>135</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,7 +2270,7 @@
         <v>136</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,7 +2281,7 @@
         <v>137</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,7 +2300,7 @@
         <v>141</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,7 +2311,7 @@
         <v>143</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,7 +2354,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>145</v>
@@ -2280,7 +2365,7 @@
         <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>145</v>
@@ -2291,7 +2376,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>145</v>
@@ -2302,7 +2387,7 @@
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>145</v>
@@ -2310,10 +2395,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>145</v>
@@ -2324,16 +2409,16 @@
         <v>9</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>145</v>
@@ -2341,10 +2426,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>145</v>
@@ -2352,13 +2437,13 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2366,19 +2451,19 @@
         <v>18</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2395,18 +2480,18 @@
         <v>63</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>145</v>
@@ -2414,10 +2499,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C131" s="8"/>
     </row>
@@ -2426,16 +2511,16 @@
         <v>9</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C133" s="5"/>
     </row>
@@ -2444,45 +2529,45 @@
         <v>30</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="23"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="23"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="23"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>145</v>
@@ -2490,10 +2575,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>145</v>
@@ -2501,10 +2586,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C140" s="8"/>
     </row>
@@ -2518,10 +2603,10 @@
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2529,7 +2614,7 @@
         <v>35</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2537,27 +2622,27 @@
         <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="23"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="23"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2571,10 +2656,10 @@
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2582,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2590,15 +2675,15 @@
         <v>18</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2606,34 +2691,34 @@
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="23" t="s">
+      <c r="A158" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="23"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2641,7 +2726,7 @@
         <v>30</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
@@ -2650,18 +2735,18 @@
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
@@ -2669,9 +2754,9 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="14" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
@@ -2683,7 +2768,7 @@
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2693,75 +2778,75 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="26" t="s">
-        <v>226</v>
+      <c r="A174" s="35" t="s">
+        <v>219</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
+      <c r="A175" s="35"/>
       <c r="B175" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2770,33 +2855,33 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="24" t="s">
+      <c r="A178" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="24"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2804,7 +2889,7 @@
         <v>30</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2812,212 +2897,300 @@
         <v>42057</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="24" t="s">
-        <v>236</v>
+    <row r="185" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A185" s="33" t="s">
+        <v>229</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>271</v>
+        <v>230</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="24"/>
+      <c r="A186" s="33"/>
       <c r="B186" s="21" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B187" s="22"/>
     </row>
     <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B188" s="22"/>
     </row>
     <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
-        <v>244</v>
+      <c r="A190" s="33" t="s">
+        <v>237</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="24"/>
+      <c r="A191" s="33"/>
       <c r="B191" s="22" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="33"/>
+      <c r="B194" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="33"/>
+      <c r="B195" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B197" s="22"/>
+    </row>
+    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="B198" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D198" s="29"/>
+    </row>
+    <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C192" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B193" s="22" t="s">
+      <c r="C199" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="22" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
-      <c r="B194" s="22" t="s">
+      <c r="B200" s="22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
-      <c r="B195" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B197" s="22"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B198" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C198" s="28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B199" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="C199" s="31" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B200" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B202" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="22" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B204" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B205" s="22"/>
+    </row>
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B205" s="22"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C206" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B207" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>271</v>
+    <row r="209" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="10">
+        <v>42057</v>
+      </c>
+      <c r="B209" s="10">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="31"/>
+      <c r="C211" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="31"/>
+      <c r="C212" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="31"/>
+      <c r="C214" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B215" s="31"/>
+      <c r="C215" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="32"/>
+      <c r="C218" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B219" s="32"/>
+      <c r="C219" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A193:A195"/>
+  <mergeCells count="12">
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A146:A148"/>
     <mergeCell ref="A158:A159"/>
     <mergeCell ref="A162:A163"/>
     <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A193:A195"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3026,107 +3199,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="87.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1">
-        <v>8</v>
-      </c>
-      <c r="C1">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2">
-        <v>820</v>
-      </c>
-      <c r="C2">
-        <v>1130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3">
-        <v>1130</v>
-      </c>
-      <c r="C3">
-        <v>1610</v>
-      </c>
-      <c r="D3" t="s">
-        <v>170</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="302">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -863,11 +863,6 @@
     <t>by clicking on "مسدود شده ها" in FragmentFollower, GetBlockedUsers will not run</t>
   </si>
   <si>
-    <t>Done. 
-You implement GetBusinessFollowers instead of GetBlockedUsers in 
-FragmentBlockeds.</t>
-  </si>
-  <si>
     <t>FragmentBlockeds</t>
   </si>
   <si>
@@ -952,14 +947,6 @@
   </si>
   <si>
     <t>I get Undefined error when using unlike!!</t>
-  </si>
-  <si>
-    <t>Kvh: I tested it. The problem is still remained!
-Let me explain the current situation. Gridview's header attached to the gridview and will
-be initialized after getting the result of getUserHomeInfo but will not be displayed when
-getSharedPost returns null as result, because you set the adapter after getting result from getSharedPosts. Now, I suggest set the adapter
-with a header and an empty post( a post without images, description, etc) when you get the result of getUserHomeInfo
-and then after getting result from getSharePosts update the adapter!</t>
   </si>
   <si>
     <t>check GetLastComment to return last comment</t>
@@ -1050,6 +1037,37 @@
   <si>
     <t>why? I think we've talked before and decided to make them un cancelable
 Kvh: I talke to Mr. Reyhani and He said all dialogs should be cancelable!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done. 
+</t>
+  </si>
+  <si>
+    <t>Done by Khl</t>
+  </si>
+  <si>
+    <t>Talk with Mr. Hos about sharing post in instagram</t>
+  </si>
+  <si>
+    <t>Get all comment notifications</t>
+  </si>
+  <si>
+    <t>Unlike post</t>
+  </si>
+  <si>
+    <t>Update comment</t>
+  </si>
+  <si>
+    <t>unfollow</t>
+  </si>
+  <si>
+    <t>unfriend</t>
+  </si>
+  <si>
+    <t>cancel share</t>
+  </si>
+  <si>
+    <t>There is no option to implement these actions in View.</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,30 +1130,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1143,11 +1143,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1169,46 +1198,56 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,34 +1552,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B205" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="70" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1551,62 +1590,62 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>274</v>
+      <c r="D3" s="16" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1614,56 +1653,56 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1671,7 +1710,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1679,26 +1718,26 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1706,7 +1745,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1714,15 +1753,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1730,7 +1769,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1738,7 +1777,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1746,7 +1785,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1754,7 +1793,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1762,7 +1801,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1770,7 +1809,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1778,17 +1817,17 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1796,7 +1835,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1804,7 +1843,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1812,12 +1851,12 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1825,7 +1864,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1833,7 +1872,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1841,17 +1880,17 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1859,12 +1898,12 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1872,7 +1911,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1880,12 +1919,12 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1893,7 +1932,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1901,7 +1940,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1909,7 +1948,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1917,7 +1956,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1925,7 +1964,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1933,12 +1972,12 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1946,7 +1985,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1954,7 +1993,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1962,7 +2001,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1970,12 +2009,12 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1983,7 +2022,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1991,12 +2030,12 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2004,7 +2043,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2012,7 +2051,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="1">
@@ -2020,29 +2059,29 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="24" t="s">
         <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2050,18 +2089,18 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2069,7 +2108,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2077,23 +2116,23 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2101,7 +2140,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -2109,7 +2148,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2119,72 +2158,74 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
         <v>119</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+    <row r="93" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="27">
         <v>42014</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -2194,46 +2235,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+    <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -2243,8 +2284,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -2254,158 +2295,162 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="24" t="s">
         <v>138</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
+    <row r="111" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="27">
         <v>42045</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="24" t="s">
         <v>126</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="24" t="s">
         <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
+    <row r="115" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="27">
         <v>42049</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="24" t="s">
         <v>156</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -2413,41 +2458,41 @@
       </c>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="24" t="s">
         <v>156</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="24" t="s">
         <v>160</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="38" t="s">
         <v>156</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -2455,8 +2500,8 @@
       </c>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="39" t="s">
         <v>169</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -2466,17 +2511,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-    </row>
-    <row r="128" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
+    </row>
+    <row r="128" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="27">
         <v>42050</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -2486,28 +2532,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="24" t="s">
         <v>169</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="38" t="s">
         <v>169</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C131" s="8"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -2515,8 +2560,8 @@
       </c>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="39" t="s">
         <v>169</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -2524,101 +2569,104 @@
       </c>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="28"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="28"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="28"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="38" t="s">
         <v>165</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C140" s="8"/>
-    </row>
-    <row r="141" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-    </row>
-    <row r="142" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
+    </row>
+    <row r="141" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="24"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+    </row>
+    <row r="142" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="27">
         <v>42051</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+    </row>
+    <row r="143" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="38" t="s">
         <v>182</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -2626,7 +2674,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2634,560 +2682,656 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
+      <c r="A147" s="21"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
+    <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="41"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="2"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
     </row>
     <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
+      <c r="A150" s="27">
         <v>42052</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+    </row>
+    <row r="151" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="38" t="s">
         <v>189</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+    </row>
+    <row r="152" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+    </row>
+    <row r="153" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+    </row>
+    <row r="154" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="39" t="s">
         <v>194</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+    </row>
+    <row r="155" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+    </row>
+    <row r="156" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="39"/>
       <c r="B156" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+    </row>
+    <row r="157" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="39" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+    </row>
+    <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="41"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+    </row>
+    <row r="160" spans="1:6" s="13" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
     </row>
-    <row r="161" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="16" t="s">
+    <row r="161" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="42" t="s">
         <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="34" t="s">
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+    </row>
+    <row r="162" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
-      <c r="B163" s="14" t="s">
+    <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="41"/>
+      <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
+    <row r="164" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
     </row>
     <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
+      <c r="A166" s="27">
         <v>42053</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="18" t="s">
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="15" t="s">
+    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A170" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="30"/>
+      <c r="B175" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="27">
+        <v>42056</v>
+      </c>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+    </row>
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="21"/>
+      <c r="B179" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="27">
+        <v>42057</v>
+      </c>
+      <c r="B184" s="10">
+        <v>42057</v>
+      </c>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+    </row>
+    <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="31"/>
+      <c r="B186" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B187" s="17"/>
+    </row>
+    <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B188" s="17"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="31"/>
+      <c r="B191" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="21"/>
+      <c r="B194" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="21"/>
+      <c r="B195" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C195" s="17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A170" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="35"/>
-      <c r="B175" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
-        <v>42056</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="33" t="s">
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B197" s="17"/>
+    </row>
+    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B178" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="33"/>
-      <c r="B179" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B182" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="10">
-        <v>42057</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A185" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="33"/>
-      <c r="B186" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B187" s="22"/>
-    </row>
-    <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B188" s="22"/>
-    </row>
-    <row r="189" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A189" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B189" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B190" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="33"/>
-      <c r="B191" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="15" t="s">
+      <c r="B201" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B205" s="17"/>
+    </row>
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B206" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B192" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B193" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="33"/>
-      <c r="B194" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="33"/>
-      <c r="B195" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C195" s="15" t="s">
+      <c r="C206" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C207" s="17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B197" s="22"/>
-    </row>
-    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B198" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C198" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="D198" s="29"/>
-    </row>
-    <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B199" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C199" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B200" s="22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B201" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B202" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B204" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B205" s="22"/>
-    </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B207" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="10">
-        <v>42057</v>
-      </c>
-      <c r="B209" s="10">
+    <row r="209" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="27">
         <v>42058</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="31" t="s">
+      <c r="C209" s="17"/>
+      <c r="D209" s="17"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="21"/>
+      <c r="B211" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="41"/>
+      <c r="B212" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C210" s="1" t="s">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="21"/>
+      <c r="B214" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="41"/>
+      <c r="B215" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C215" s="17"/>
+      <c r="D215" s="17"/>
+    </row>
+    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B216" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="31"/>
-      <c r="C211" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="31"/>
-      <c r="C212" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="C213" s="23" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="43" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="31"/>
-      <c r="C214" s="23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B215" s="31"/>
-      <c r="C215" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="35"/>
+      <c r="B218" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="44"/>
+      <c r="B219" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C217" s="23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="32"/>
-      <c r="C218" s="23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B219" s="32"/>
-      <c r="C219" s="2" t="s">
+    </row>
+    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B220" s="15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C220" s="23" t="s">
-        <v>291</v>
-      </c>
+    <row r="222" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="27">
+        <v>42059</v>
+      </c>
+      <c r="C222" s="18"/>
+      <c r="D222" s="18"/>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B224" s="20"/>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B225" s="20"/>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="B226" s="20"/>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="B227" s="20"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B228" s="20"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B229" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A146:A148"/>
     <mergeCell ref="A158:A159"/>
     <mergeCell ref="A162:A163"/>
     <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B217:B219"/>
-    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="A213:A215"/>
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
@@ -3199,10 +3343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,58 +3357,64 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="296">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -949,31 +949,12 @@
     <t>I get Undefined error when using unlike!!</t>
   </si>
   <si>
-    <t>check GetLastComment to return last comment</t>
-  </si>
-  <si>
     <t>implement Google Analytic</t>
   </si>
   <si>
-    <t>implement cancelShare</t>
-  </si>
-  <si>
     <t>implement AccessToken</t>
   </si>
   <si>
-    <t>Display camera fast</t>
-  </si>
-  <si>
-    <t>change getUserReview to get existing rate reviews and display rate with no text</t>
-  </si>
-  <si>
-    <t>GetLastCommentNotification</t>
-  </si>
-  <si>
-    <t>check the owner of the comment is the owner
-of the post, if it is, do not display notification</t>
-  </si>
-  <si>
     <t>view fault</t>
   </si>
   <si>
@@ -984,12 +965,6 @@
   </si>
   <si>
     <t>There is no option to unfollow business in view</t>
-  </si>
-  <si>
-    <t>getSharePost: should have isLiked&amp;isReported</t>
-  </si>
-  <si>
-    <t>getTimeLinePosts: should have isLiked&amp;isReported&amp;isShared</t>
   </si>
   <si>
     <t>Display progress dialog while followBusiness webservice is executing</t>
@@ -1068,6 +1043,12 @@
   </si>
   <si>
     <t>There is no option to implement these actions in View.</t>
+  </si>
+  <si>
+    <t>Check camera speed</t>
+  </si>
+  <si>
+    <t>notification</t>
   </si>
 </sst>
 </file>
@@ -1554,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,7 +3000,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3058,7 +3039,7 @@
         <v>241</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,7 +3048,7 @@
         <v>242</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3101,7 +3082,7 @@
         <v>240</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3170,7 +3151,7 @@
         <v>240</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,72 +3174,72 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="41"/>
       <c r="B212" s="15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="40" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="21"/>
       <c r="B214" s="15" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="39" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="43" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="15" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="44"/>
       <c r="B219" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3266,7 +3247,7 @@
         <v>49</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3281,42 +3262,42 @@
         <v>69</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B224" s="20"/>
     </row>
     <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="23" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B225" s="20"/>
     </row>
     <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="37" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B226" s="20"/>
     </row>
     <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="37" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B227" s="20"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="36" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B228" s="20"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="36" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B229" s="20"/>
     </row>
@@ -3343,11 +3324,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3355,61 +3334,33 @@
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>294</v>
       </c>
     </row>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
     <sheet name="Kaveh" sheetId="3" r:id="rId2"/>
+    <sheet name="App" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="323">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -1006,10 +1007,6 @@
     <t>getResutl: line 215</t>
   </si>
   <si>
-    <t>با لمس نوتیفیکیشن intent داده شده باز نمیشود. Intent مربوط به actMain داده شده است. لطفأ بررسی کنید.
-Kvh: I'm working on it</t>
-  </si>
-  <si>
     <t>why? I think we've talked before and decided to make them un cancelable
 Kvh: I talke to Mr. Reyhani and He said all dialogs should be cancelable!</t>
   </si>
@@ -1048,7 +1045,113 @@
     <t>Check camera speed</t>
   </si>
   <si>
-    <t>notification</t>
+    <t>Kvh: It is done. Change the intent in AlarmReciever line 56. I tested with ActivityMain but I got 
+Force Close!</t>
+  </si>
+  <si>
+    <t>Should not be displayed TimeLine page with no posts. It shouldn't be blank</t>
+  </si>
+  <si>
+    <t>FragmentSearchUser</t>
+  </si>
+  <si>
+    <t>User shouldn't be able to search user with Persian language</t>
+  </si>
+  <si>
+    <t>FagmentResultUser</t>
+  </si>
+  <si>
+    <t>Don't display blank page when search result is empty. Display a message.</t>
+  </si>
+  <si>
+    <t>It is second time! 
+Don't display "null" when the user's aboutMe is NULL</t>
+  </si>
+  <si>
+    <t>By clicking on serach result item, the GetUserHomeInfo will not call! What do
+you call?!!</t>
+  </si>
+  <si>
+    <t>After you choose one of the history list's items, the list will not disapear and 
+the selected item will remain in the list. You should display all items so user 
+can select another item or do not display any item after choosing one item. I 
+think frist suggestion is more reasonable.</t>
+  </si>
+  <si>
+    <t>What is the delete icon in search result listview?</t>
+  </si>
+  <si>
+    <t>FragmentMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it is first time user see this page, display a message  with this conten:
+برای انتخاب محل کسب و کار خود، بر روی یک نقطه از نقشه کلیک نمایید
+</t>
+  </si>
+  <si>
+    <t>ActivityNewBusienss_step2</t>
+  </si>
+  <si>
+    <t>check inputed website address to match website format</t>
+  </si>
+  <si>
+    <t>check inputed phone number to match phone number format (a value with 7
+or 8 digits)</t>
+  </si>
+  <si>
+    <t>check inputed cellphone number to match cellphone number format( starts
+with "09" and 11 digits limitation</t>
+  </si>
+  <si>
+    <t>After successful implementation and displaying dialog, by clicking on the 
+dialog button: Force Close</t>
+  </si>
+  <si>
+    <t>Don't display search icon in business home info</t>
+  </si>
+  <si>
+    <t>FragmentCallInfo</t>
+  </si>
+  <si>
+    <t>display hashtags in appropriate way, like : "#ساعت#,فروش</t>
+  </si>
+  <si>
+    <t>hashtags must be clickable and open search page with the hashtag's value after
+clicking on a hashtag</t>
+  </si>
+  <si>
+    <t>There is no webservice to get business' contact info. I forgat that but you implemented the 
+page and you saw you don't have:
+email 
+website
+phone number
+cellphone number
+ how did not infrom me?!!!!</t>
+  </si>
+  <si>
+    <t>It is the second time! 
+Display map with reasonable zoom scale  so that the user can see highways and
+main street's name</t>
+  </si>
+  <si>
+    <t>Implement getResult and getError</t>
+  </si>
+  <si>
+    <t>It is the second time!
+getResult: force close</t>
+  </si>
+  <si>
+    <t>Post page (reachable by clicking on gridview)</t>
+  </si>
+  <si>
+    <t>display business user name instead of static name</t>
+  </si>
+  <si>
+    <t>change default picture for the post</t>
+  </si>
+  <si>
+    <t>hashtags must be clickable and therefore open search page with the hashtag's value after
+clicking on a hashtag</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,12 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,50 +1282,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1533,16 +1658,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251:A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="70" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="1" customWidth="1"/>
     <col min="3" max="3" width="85.42578125" style="17" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -2206,7 +2331,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="28" t="s">
         <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -2217,7 +2342,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -2225,7 +2350,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -2233,13 +2358,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="28" t="s">
         <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -2247,7 +2372,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="28" t="s">
         <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -2266,7 +2391,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -2277,7 +2402,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="28" t="s">
         <v>148</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -2285,7 +2410,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -2296,7 +2421,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -2307,7 +2432,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -2326,7 +2451,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -2431,7 +2556,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -2462,7 +2587,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -2473,7 +2598,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="39" t="s">
+      <c r="A125" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -2482,7 +2607,7 @@
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="30" t="s">
         <v>169</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -2525,7 +2650,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="38" t="s">
+      <c r="A131" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2533,7 +2658,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="39" t="s">
+      <c r="A132" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -2542,7 +2667,7 @@
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="39" t="s">
+      <c r="A133" s="30" t="s">
         <v>169</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -2551,7 +2676,7 @@
       <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -2562,7 +2687,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="28" t="s">
+      <c r="A135" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2573,7 +2698,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="28"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2582,7 +2707,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="28"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2591,7 +2716,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="28"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2600,7 +2725,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="38" t="s">
+      <c r="A139" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B139" s="8" t="s">
@@ -2611,7 +2736,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B140" s="8" t="s">
@@ -2631,7 +2756,7 @@
       <c r="D142" s="17"/>
     </row>
     <row r="143" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="38" t="s">
+      <c r="A143" s="29" t="s">
         <v>182</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -2639,7 +2764,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="39" t="s">
+      <c r="A144" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -2647,7 +2772,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="39" t="s">
+      <c r="A145" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -2655,7 +2780,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="40" t="s">
+      <c r="A146" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2663,13 +2788,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="21"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="41"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
@@ -2688,7 +2813,7 @@
       <c r="D150" s="17"/>
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="38" t="s">
+      <c r="A151" s="29" t="s">
         <v>189</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -2698,7 +2823,7 @@
       <c r="D151" s="17"/>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="39" t="s">
+      <c r="A152" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -2708,7 +2833,7 @@
       <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="39" t="s">
+      <c r="A153" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B153" s="12" t="s">
@@ -2718,7 +2843,7 @@
       <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="39" t="s">
+      <c r="A154" s="30" t="s">
         <v>194</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -2728,7 +2853,7 @@
       <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="39" t="s">
+      <c r="A155" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -2738,7 +2863,7 @@
       <c r="D155" s="17"/>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="39"/>
+      <c r="A156" s="30"/>
       <c r="B156" s="2" t="s">
         <v>203</v>
       </c>
@@ -2746,7 +2871,7 @@
       <c r="D156" s="17"/>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="39" t="s">
+      <c r="A157" s="30" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -2756,7 +2881,7 @@
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40" t="s">
+      <c r="A158" s="32" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2766,7 +2891,7 @@
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="41"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2774,7 +2899,7 @@
       <c r="D159" s="17"/>
     </row>
     <row r="160" spans="1:6" s="13" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="39" t="s">
+      <c r="A160" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -2786,7 +2911,7 @@
       <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="42" t="s">
+      <c r="A161" s="35" t="s">
         <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -2796,7 +2921,7 @@
       <c r="D161" s="17"/>
     </row>
     <row r="162" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="40" t="s">
+      <c r="A162" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -2808,7 +2933,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="41"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
@@ -2818,7 +2943,7 @@
       <c r="F163" s="12"/>
     </row>
     <row r="164" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="39" t="s">
+      <c r="A164" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -2835,7 +2960,7 @@
       <c r="D166" s="17"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="38" t="s">
+      <c r="A167" s="29" t="s">
         <v>207</v>
       </c>
       <c r="B167" s="17" t="s">
@@ -2843,7 +2968,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="39" t="s">
+      <c r="A168" s="30" t="s">
         <v>209</v>
       </c>
       <c r="B168" s="17" t="s">
@@ -2851,7 +2976,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="19" t="s">
+      <c r="A169" s="28" t="s">
         <v>210</v>
       </c>
       <c r="B169" s="17" t="s">
@@ -2859,7 +2984,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A170" s="29" t="s">
+      <c r="A170" s="36" t="s">
         <v>211</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -2867,7 +2992,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B171" s="17" t="s">
@@ -2875,7 +3000,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="29" t="s">
+      <c r="A172" s="36" t="s">
         <v>215</v>
       </c>
       <c r="B172" s="17" t="s">
@@ -2886,7 +3011,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="29" t="s">
+      <c r="A173" s="36" t="s">
         <v>217</v>
       </c>
       <c r="B173" s="17" t="s">
@@ -2894,7 +3019,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="30" t="s">
+      <c r="A174" s="23" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -2903,7 +3028,7 @@
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="30"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="17" t="s">
         <v>221</v>
       </c>
@@ -2916,7 +3041,7 @@
       <c r="D177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="21" t="s">
+      <c r="A178" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -2924,13 +3049,13 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="21"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="29" t="s">
+      <c r="A180" s="36" t="s">
         <v>224</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -2938,7 +3063,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="19" t="s">
+      <c r="A181" s="28" t="s">
         <v>224</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -2946,7 +3071,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="29" t="s">
+      <c r="A182" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -2964,7 +3089,7 @@
       <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="31" t="s">
+      <c r="A185" s="37" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -2973,7 +3098,7 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="31"/>
+      <c r="A186" s="37"/>
       <c r="B186" s="2" t="s">
         <v>233</v>
       </c>
@@ -2981,30 +3106,30 @@
       <c r="D186" s="17"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="29" t="s">
+      <c r="A187" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B187" s="17"/>
     </row>
     <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="32" t="s">
+      <c r="A188" s="38" t="s">
         <v>232</v>
       </c>
       <c r="B188" s="17"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="29" t="s">
+      <c r="A189" s="36" t="s">
         <v>234</v>
       </c>
       <c r="B189" s="17" t="s">
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="37" t="s">
         <v>236</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -3015,13 +3140,13 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="31"/>
+      <c r="A191" s="37"/>
       <c r="B191" s="17" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="19" t="s">
+      <c r="A192" s="28" t="s">
         <v>239</v>
       </c>
       <c r="B192" s="17" t="s">
@@ -3032,27 +3157,27 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="33" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="17" t="s">
         <v>241</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="21"/>
+      <c r="A194" s="33"/>
       <c r="B194" s="17" t="s">
         <v>242</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="21"/>
+      <c r="A195" s="33"/>
       <c r="B195" s="2" t="s">
         <v>243</v>
       </c>
@@ -3061,7 +3186,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B196" s="17" t="s">
@@ -3069,24 +3194,24 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="29" t="s">
+      <c r="A197" s="36" t="s">
         <v>234</v>
       </c>
       <c r="B197" s="17"/>
     </row>
-    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="33" t="s">
+    <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="28" t="s">
         <v>246</v>
       </c>
       <c r="B198" s="17" t="s">
         <v>240</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="34" t="s">
+      <c r="A199" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -3098,7 +3223,7 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="29" t="s">
+      <c r="A200" s="36" t="s">
         <v>248</v>
       </c>
       <c r="B200" s="17" t="s">
@@ -3106,7 +3231,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="29" t="s">
+      <c r="A201" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B201" s="17" t="s">
@@ -3114,7 +3239,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="19" t="s">
+      <c r="A202" s="28" t="s">
         <v>251</v>
       </c>
       <c r="B202" s="17" t="s">
@@ -3122,7 +3247,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="29" t="s">
+      <c r="A203" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="17" t="s">
@@ -3130,7 +3255,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="29" t="s">
+      <c r="A204" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B204" s="17" t="s">
@@ -3138,24 +3263,24 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="29" t="s">
+      <c r="A205" s="36" t="s">
         <v>255</v>
       </c>
       <c r="B205" s="17"/>
     </row>
     <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="28" t="s">
         <v>256</v>
       </c>
       <c r="B206" s="17" t="s">
         <v>240</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="29" t="s">
+      <c r="A207" s="36" t="s">
         <v>257</v>
       </c>
       <c r="B207" s="17" t="s">
@@ -3173,7 +3298,7 @@
       <c r="D209" s="17"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="21" t="s">
+      <c r="A210" s="33" t="s">
         <v>267</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -3181,19 +3306,19 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="21"/>
+      <c r="A211" s="33"/>
       <c r="B211" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="41"/>
+      <c r="A212" s="34"/>
       <c r="B212" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="40" t="s">
+      <c r="A213" s="32" t="s">
         <v>274</v>
       </c>
       <c r="B213" s="15" t="s">
@@ -3201,13 +3326,13 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="21"/>
+      <c r="A214" s="33"/>
       <c r="B214" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="41"/>
+      <c r="A215" s="34"/>
       <c r="B215" s="2" t="s">
         <v>280</v>
       </c>
@@ -3215,7 +3340,7 @@
       <c r="D215" s="17"/>
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="39" t="s">
+      <c r="A216" s="30" t="s">
         <v>271</v>
       </c>
       <c r="B216" s="15" t="s">
@@ -3223,7 +3348,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="43" t="s">
+      <c r="A217" s="39" t="s">
         <v>277</v>
       </c>
       <c r="B217" s="15" t="s">
@@ -3231,19 +3356,19 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="35"/>
+      <c r="A218" s="40"/>
       <c r="B218" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="44"/>
+      <c r="A219" s="41"/>
       <c r="B219" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="39" t="s">
+      <c r="A220" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B220" s="15" t="s">
@@ -3258,51 +3383,212 @@
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="23" t="s">
+      <c r="A223" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="20" t="s">
-        <v>293</v>
+      <c r="B223" s="22" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="37" t="s">
+      <c r="A224" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B224" s="22"/>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="B224" s="20"/>
-    </row>
-    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="23" t="s">
+      <c r="B225" s="22"/>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="B225" s="20"/>
-    </row>
-    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="37" t="s">
+      <c r="B226" s="22"/>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="B226" s="20"/>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="37" t="s">
+      <c r="B227" s="22"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="B227" s="20"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="36" t="s">
+      <c r="B228" s="22"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="B228" s="20"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="B229" s="20"/>
+      <c r="B229" s="22"/>
+    </row>
+    <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="27">
+        <v>42060</v>
+      </c>
+      <c r="C231" s="19"/>
+      <c r="D231" s="19"/>
+    </row>
+    <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A234" s="31"/>
+      <c r="B234" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A236" s="31"/>
+      <c r="B236" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="31"/>
+      <c r="B237" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="31"/>
+      <c r="B240" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="31"/>
+      <c r="B241" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="31"/>
+      <c r="B245" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="31"/>
+      <c r="B246" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A247" s="31"/>
+      <c r="B247" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="31"/>
+      <c r="B248" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="31"/>
+      <c r="B252" s="2" t="s">
+        <v>322</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A244:A248"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
@@ -3324,9 +3610,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3336,36 +3624,54 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>276</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>265</v>
+      <c r="A4" s="20" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>286</v>
+      <c r="A5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="325">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -1152,6 +1152,12 @@
   <si>
     <t>hashtags must be clickable and therefore open search page with the hashtag's value after
 clicking on a hashtag</t>
+  </si>
+  <si>
+    <t>as I said I think it should be handled in webserver or webservice controls, view handles anything be received</t>
+  </si>
+  <si>
+    <t>my decision was :: It's text, so it can contain 2 numbers with different formats for example, we can't limit user</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,6 +1215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1287,10 +1299,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1312,16 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,10 +1330,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1345,14 +1366,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,13 +1694,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:A252"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223:B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="22" customWidth="1"/>
     <col min="2" max="2" width="81" style="1" customWidth="1"/>
     <col min="3" max="3" width="85.42578125" style="17" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
@@ -1674,7 +1708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1685,7 +1719,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1696,7 +1730,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1707,7 +1741,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1718,7 +1752,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1729,7 +1763,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1740,7 +1774,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1751,7 +1785,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1759,7 +1793,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1770,7 +1804,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1781,12 +1815,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1797,7 +1831,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1808,7 +1842,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1816,7 +1850,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1824,7 +1858,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1835,7 +1869,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1843,7 +1877,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1851,7 +1885,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1859,15 +1893,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1875,7 +1909,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1883,7 +1917,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1891,7 +1925,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1899,7 +1933,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1907,7 +1941,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1915,7 +1949,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1923,17 +1957,17 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1941,7 +1975,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1949,7 +1983,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1957,12 +1991,12 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1970,7 +2004,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1978,7 +2012,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1986,17 +2020,17 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2004,12 +2038,12 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2017,7 +2051,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2025,12 +2059,12 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2038,7 +2072,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2046,7 +2080,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2054,7 +2088,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2062,7 +2096,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2070,7 +2104,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2078,12 +2112,12 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2091,7 +2125,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2099,7 +2133,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2107,7 +2141,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2115,12 +2149,12 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2128,7 +2162,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2136,12 +2170,12 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2149,7 +2183,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2157,7 +2191,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="1">
@@ -2165,7 +2199,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="22" t="s">
         <v>93</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2176,7 +2210,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2187,7 +2221,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="22" t="s">
         <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2195,7 +2229,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2206,7 +2240,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2214,7 +2248,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2222,7 +2256,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2233,12 +2267,12 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2246,7 +2280,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -2254,7 +2288,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2265,7 +2299,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -2273,7 +2307,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2281,7 +2315,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2289,7 +2323,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2297,7 +2331,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2305,14 +2339,14 @@
       </c>
     </row>
     <row r="93" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27">
+      <c r="A93" s="25">
         <v>42014</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -2320,7 +2354,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -2331,7 +2365,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -2342,7 +2376,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -2350,7 +2384,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -2358,13 +2392,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -2372,7 +2406,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -2380,7 +2414,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="22" t="s">
         <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -2391,7 +2425,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="26" t="s">
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -2402,7 +2436,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="26" t="s">
         <v>148</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -2410,7 +2444,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="26" t="s">
         <v>133</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -2421,7 +2455,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="26" t="s">
         <v>138</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -2432,7 +2466,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="26" t="s">
         <v>139</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -2440,7 +2474,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="22" t="s">
         <v>138</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -2451,7 +2485,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="26" t="s">
         <v>142</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -2465,14 +2499,14 @@
       <c r="B110" s="5"/>
     </row>
     <row r="111" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="27">
+      <c r="A111" s="25">
         <v>42045</v>
       </c>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="24" t="s">
+      <c r="A112" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -2483,7 +2517,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -2494,14 +2528,14 @@
       </c>
     </row>
     <row r="115" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27">
+      <c r="A115" s="25">
         <v>42049</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="24" t="s">
+      <c r="A116" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -2512,7 +2546,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="24" t="s">
+      <c r="A117" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -2523,7 +2557,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="24" t="s">
+      <c r="A118" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -2534,7 +2568,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -2545,7 +2579,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="24" t="s">
+      <c r="A120" s="22" t="s">
         <v>156</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -2556,7 +2590,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -2565,7 +2599,7 @@
       <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="22" t="s">
         <v>156</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -2576,7 +2610,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="22" t="s">
         <v>160</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -2587,7 +2621,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="27" t="s">
         <v>156</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -2598,7 +2632,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -2607,7 +2641,7 @@
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -2621,14 +2655,14 @@
       <c r="B127" s="8"/>
     </row>
     <row r="128" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="27">
+      <c r="A128" s="25">
         <v>42050</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="24" t="s">
+      <c r="A129" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -2639,7 +2673,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="24" t="s">
+      <c r="A130" s="22" t="s">
         <v>169</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -2650,7 +2684,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="27" t="s">
         <v>169</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2658,7 +2692,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -2667,7 +2701,7 @@
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -2676,7 +2710,7 @@
       <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -2687,7 +2721,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2698,7 +2732,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
+      <c r="A136" s="36"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2707,7 +2741,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
+      <c r="A137" s="36"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2716,7 +2750,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
+      <c r="A138" s="36"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2725,7 +2759,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="29" t="s">
+      <c r="A139" s="27" t="s">
         <v>165</v>
       </c>
       <c r="B139" s="8" t="s">
@@ -2736,7 +2770,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="28" t="s">
+      <c r="A140" s="26" t="s">
         <v>169</v>
       </c>
       <c r="B140" s="8" t="s">
@@ -2744,19 +2778,19 @@
       </c>
     </row>
     <row r="141" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
+      <c r="A141" s="22"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
     </row>
     <row r="142" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="27">
+      <c r="A142" s="25">
         <v>42051</v>
       </c>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
     </row>
     <row r="143" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="29" t="s">
+      <c r="A143" s="27" t="s">
         <v>182</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -2764,7 +2798,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="30" t="s">
+      <c r="A144" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -2772,7 +2806,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="30" t="s">
+      <c r="A145" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -2780,7 +2814,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="32" t="s">
+      <c r="A146" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2788,32 +2822,32 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
+      <c r="A147" s="38"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="34"/>
+      <c r="A148" s="40"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
+      <c r="A149" s="22"/>
       <c r="B149" s="2"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
     </row>
     <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="27">
+      <c r="A150" s="25">
         <v>42052</v>
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="29" t="s">
+      <c r="A151" s="27" t="s">
         <v>189</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -2823,7 +2857,7 @@
       <c r="D151" s="17"/>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -2833,7 +2867,7 @@
       <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="30" t="s">
+      <c r="A153" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B153" s="12" t="s">
@@ -2843,7 +2877,7 @@
       <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="30" t="s">
+      <c r="A154" s="28" t="s">
         <v>194</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -2853,7 +2887,7 @@
       <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -2863,7 +2897,7 @@
       <c r="D155" s="17"/>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="30"/>
+      <c r="A156" s="28"/>
       <c r="B156" s="2" t="s">
         <v>203</v>
       </c>
@@ -2871,7 +2905,7 @@
       <c r="D156" s="17"/>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="30" t="s">
+      <c r="A157" s="28" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -2881,7 +2915,7 @@
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="32" t="s">
+      <c r="A158" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2891,7 +2925,7 @@
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="34"/>
+      <c r="A159" s="40"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2899,7 +2933,7 @@
       <c r="D159" s="17"/>
     </row>
     <row r="160" spans="1:6" s="13" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -2911,7 +2945,7 @@
       <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="35" t="s">
+      <c r="A161" s="30" t="s">
         <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -2920,8 +2954,8 @@
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
     </row>
-    <row r="162" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="32" t="s">
+    <row r="162" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -2933,7 +2967,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="34"/>
+      <c r="A163" s="40"/>
       <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
@@ -2943,7 +2977,7 @@
       <c r="F163" s="12"/>
     </row>
     <row r="164" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -2953,14 +2987,14 @@
       <c r="D164" s="17"/>
     </row>
     <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="27">
+      <c r="A166" s="25">
         <v>42053</v>
       </c>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="29" t="s">
+      <c r="A167" s="27" t="s">
         <v>207</v>
       </c>
       <c r="B167" s="17" t="s">
@@ -2968,7 +3002,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="28" t="s">
         <v>209</v>
       </c>
       <c r="B168" s="17" t="s">
@@ -2976,7 +3010,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="26" t="s">
         <v>210</v>
       </c>
       <c r="B169" s="17" t="s">
@@ -2984,7 +3018,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A170" s="36" t="s">
+      <c r="A170" s="31" t="s">
         <v>211</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -2992,7 +3026,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="28" t="s">
+      <c r="A171" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B171" s="17" t="s">
@@ -3000,7 +3034,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="36" t="s">
+      <c r="A172" s="31" t="s">
         <v>215</v>
       </c>
       <c r="B172" s="17" t="s">
@@ -3011,7 +3045,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="36" t="s">
+      <c r="A173" s="31" t="s">
         <v>217</v>
       </c>
       <c r="B173" s="17" t="s">
@@ -3019,7 +3053,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="23" t="s">
+      <c r="A174" s="41" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3028,20 +3062,20 @@
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="23"/>
+      <c r="A175" s="41"/>
       <c r="B175" s="17" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="27">
+      <c r="A177" s="25">
         <v>42056</v>
       </c>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="33" t="s">
+      <c r="A178" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -3049,13 +3083,13 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="33"/>
+      <c r="A179" s="38"/>
       <c r="B179" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="36" t="s">
+      <c r="A180" s="31" t="s">
         <v>224</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -3063,7 +3097,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="28" t="s">
+      <c r="A181" s="26" t="s">
         <v>224</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -3071,7 +3105,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="36" t="s">
+      <c r="A182" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -3079,7 +3113,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="27">
+      <c r="A184" s="25">
         <v>42057</v>
       </c>
       <c r="B184" s="10">
@@ -3089,7 +3123,7 @@
       <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="37" t="s">
+      <c r="A185" s="45" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3098,7 +3132,7 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="37"/>
+      <c r="A186" s="45"/>
       <c r="B186" s="2" t="s">
         <v>233</v>
       </c>
@@ -3106,19 +3140,19 @@
       <c r="D186" s="17"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="36" t="s">
+      <c r="A187" s="31" t="s">
         <v>231</v>
       </c>
       <c r="B187" s="17"/>
     </row>
     <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="38" t="s">
+      <c r="A188" s="32" t="s">
         <v>232</v>
       </c>
       <c r="B188" s="17"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="36" t="s">
+      <c r="A189" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B189" s="17" t="s">
@@ -3129,7 +3163,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="37" t="s">
+      <c r="A190" s="45" t="s">
         <v>236</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -3140,13 +3174,13 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="37"/>
+      <c r="A191" s="45"/>
       <c r="B191" s="17" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="28" t="s">
+      <c r="A192" s="26" t="s">
         <v>239</v>
       </c>
       <c r="B192" s="17" t="s">
@@ -3157,7 +3191,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="33" t="s">
+      <c r="A193" s="38" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -3168,7 +3202,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="33"/>
+      <c r="A194" s="38"/>
       <c r="B194" s="17" t="s">
         <v>242</v>
       </c>
@@ -3177,7 +3211,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="33"/>
+      <c r="A195" s="38"/>
       <c r="B195" s="2" t="s">
         <v>243</v>
       </c>
@@ -3186,7 +3220,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="38" t="s">
+      <c r="A196" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B196" s="17" t="s">
@@ -3194,13 +3228,13 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="36" t="s">
+      <c r="A197" s="31" t="s">
         <v>234</v>
       </c>
       <c r="B197" s="17"/>
     </row>
     <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="28" t="s">
+      <c r="A198" s="26" t="s">
         <v>246</v>
       </c>
       <c r="B198" s="17" t="s">
@@ -3223,7 +3257,7 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="36" t="s">
+      <c r="A200" s="31" t="s">
         <v>248</v>
       </c>
       <c r="B200" s="17" t="s">
@@ -3231,7 +3265,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="36" t="s">
+      <c r="A201" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B201" s="17" t="s">
@@ -3239,7 +3273,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="28" t="s">
+      <c r="A202" s="26" t="s">
         <v>251</v>
       </c>
       <c r="B202" s="17" t="s">
@@ -3247,7 +3281,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="36" t="s">
+      <c r="A203" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="17" t="s">
@@ -3255,7 +3289,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="36" t="s">
+      <c r="A204" s="31" t="s">
         <v>253</v>
       </c>
       <c r="B204" s="17" t="s">
@@ -3263,13 +3297,13 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="36" t="s">
+      <c r="A205" s="31" t="s">
         <v>255</v>
       </c>
       <c r="B205" s="17"/>
     </row>
     <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="28" t="s">
+      <c r="A206" s="26" t="s">
         <v>256</v>
       </c>
       <c r="B206" s="17" t="s">
@@ -3280,7 +3314,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="36" t="s">
+      <c r="A207" s="31" t="s">
         <v>257</v>
       </c>
       <c r="B207" s="17" t="s">
@@ -3291,14 +3325,14 @@
       </c>
     </row>
     <row r="209" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="27">
+      <c r="A209" s="25">
         <v>42058</v>
       </c>
       <c r="C209" s="17"/>
       <c r="D209" s="17"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="33" t="s">
+      <c r="A210" s="38" t="s">
         <v>267</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -3306,19 +3340,19 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="33"/>
+      <c r="A211" s="38"/>
       <c r="B211" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="34"/>
+      <c r="A212" s="40"/>
       <c r="B212" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="32" t="s">
+      <c r="A213" s="39" t="s">
         <v>274</v>
       </c>
       <c r="B213" s="15" t="s">
@@ -3326,13 +3360,13 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="33"/>
+      <c r="A214" s="38"/>
       <c r="B214" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="34"/>
+      <c r="A215" s="40"/>
       <c r="B215" s="2" t="s">
         <v>280</v>
       </c>
@@ -3340,7 +3374,7 @@
       <c r="D215" s="17"/>
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="30" t="s">
+      <c r="A216" s="28" t="s">
         <v>271</v>
       </c>
       <c r="B216" s="15" t="s">
@@ -3348,7 +3382,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="39" t="s">
+      <c r="A217" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B217" s="15" t="s">
@@ -3356,19 +3390,19 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="40"/>
+      <c r="A218" s="43"/>
       <c r="B218" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="41"/>
+      <c r="A219" s="44"/>
       <c r="B219" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="30" t="s">
+      <c r="A220" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B220" s="15" t="s">
@@ -3376,107 +3410,110 @@
       </c>
     </row>
     <row r="222" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="27">
+      <c r="A222" s="25">
         <v>42059</v>
       </c>
       <c r="C222" s="18"/>
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="42" t="s">
+      <c r="A223" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="22" t="s">
+      <c r="B223" s="37" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="43" t="s">
+      <c r="A224" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="22"/>
+      <c r="B224" s="37"/>
     </row>
     <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="42" t="s">
+      <c r="A225" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B225" s="22"/>
+      <c r="B225" s="37"/>
     </row>
     <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="43" t="s">
+      <c r="A226" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B226" s="22"/>
+      <c r="B226" s="37"/>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="43" t="s">
+      <c r="A227" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="22"/>
+      <c r="B227" s="37"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="44" t="s">
+      <c r="A228" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="B228" s="22"/>
+      <c r="B228" s="37"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="44" t="s">
+      <c r="A229" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="22"/>
+      <c r="B229" s="37"/>
     </row>
     <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="27">
+      <c r="A231" s="25">
         <v>42060</v>
       </c>
       <c r="C231" s="19"/>
       <c r="D231" s="19"/>
     </row>
     <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="44" t="s">
+      <c r="A232" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="51" t="s">
         <v>300</v>
       </c>
+      <c r="C232" s="13" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="31" t="s">
+      <c r="A233" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="47" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="234" spans="1:4" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A234" s="31"/>
-      <c r="B234" s="2" t="s">
+    <row r="234" spans="1:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A234" s="48"/>
+      <c r="B234" s="46" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="31" t="s">
+      <c r="A235" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A236" s="31"/>
+    <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="36"/>
       <c r="B236" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="31"/>
-      <c r="B237" s="19" t="s">
+      <c r="A237" s="36"/>
+      <c r="B237" s="47" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A238" s="24" t="s">
+      <c r="A238" s="22" t="s">
         <v>304</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -3484,27 +3521,30 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="31" t="s">
+      <c r="A239" s="36" t="s">
         <v>306</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="31"/>
+    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="36"/>
       <c r="B240" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="31"/>
-      <c r="B241" s="2" t="s">
+      <c r="A241" s="36"/>
+      <c r="B241" s="51" t="s">
         <v>309</v>
       </c>
+      <c r="C241" s="13" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="24" t="s">
+      <c r="A242" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -3512,83 +3552,78 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="24" t="s">
+      <c r="A243" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="46" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="31" t="s">
+      <c r="A244" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="31"/>
+      <c r="A245" s="36"/>
       <c r="B245" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="31"/>
+      <c r="A246" s="36"/>
       <c r="B246" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247" s="31"/>
+      <c r="A247" s="36"/>
       <c r="B247" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="31"/>
+      <c r="A248" s="36"/>
       <c r="B248" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="249" spans="1:3" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="30" t="s">
+      <c r="A249" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="50" t="s">
         <v>318</v>
       </c>
       <c r="C249" s="5"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="24" t="s">
+      <c r="A250" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="51" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="31" t="s">
+      <c r="A251" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="46" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="31"/>
+      <c r="A252" s="36"/>
       <c r="B252" s="2" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A244:A248"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
@@ -3602,6 +3637,11 @@
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A244:A248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="326">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -1158,6 +1158,9 @@
   </si>
   <si>
     <t>my decision was :: It's text, so it can contain 2 numbers with different formats for example, we can't limit user</t>
+  </si>
+  <si>
+    <t>we have these data in business class</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,6 +1224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1341,11 +1350,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,24 +1394,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="B223" sqref="B223:B229"/>
     </sheetView>
   </sheetViews>
@@ -2721,7 +2737,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="36" t="s">
+      <c r="A135" s="44" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2732,7 +2748,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
+      <c r="A136" s="44"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2741,7 +2757,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2750,7 +2766,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2814,7 +2830,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="39" t="s">
+      <c r="A146" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2822,13 +2838,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
+      <c r="A147" s="43"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="40"/>
+      <c r="A148" s="46"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
@@ -2915,7 +2931,7 @@
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="39" t="s">
+      <c r="A158" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2925,7 +2941,7 @@
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="40"/>
+      <c r="A159" s="46"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2955,7 +2971,7 @@
       <c r="D161" s="17"/>
     </row>
     <row r="162" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="39" t="s">
+      <c r="A162" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -2967,7 +2983,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="40"/>
+      <c r="A163" s="46"/>
       <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
@@ -3053,7 +3069,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="41" t="s">
+      <c r="A174" s="47" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3062,7 +3078,7 @@
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="41"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="17" t="s">
         <v>221</v>
       </c>
@@ -3075,7 +3091,7 @@
       <c r="D177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="38" t="s">
+      <c r="A178" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -3083,7 +3099,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="38"/>
+      <c r="A179" s="43"/>
       <c r="B179" s="17" t="s">
         <v>223</v>
       </c>
@@ -3123,7 +3139,7 @@
       <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="45" t="s">
+      <c r="A185" s="51" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3132,7 +3148,7 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="45"/>
+      <c r="A186" s="51"/>
       <c r="B186" s="2" t="s">
         <v>233</v>
       </c>
@@ -3163,7 +3179,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="45" t="s">
+      <c r="A190" s="51" t="s">
         <v>236</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -3174,7 +3190,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="45"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="17" t="s">
         <v>238</v>
       </c>
@@ -3191,7 +3207,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="38" t="s">
+      <c r="A193" s="43" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -3202,7 +3218,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="38"/>
+      <c r="A194" s="43"/>
       <c r="B194" s="17" t="s">
         <v>242</v>
       </c>
@@ -3211,7 +3227,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="38"/>
+      <c r="A195" s="43"/>
       <c r="B195" s="2" t="s">
         <v>243</v>
       </c>
@@ -3332,7 +3348,7 @@
       <c r="D209" s="17"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="38" t="s">
+      <c r="A210" s="43" t="s">
         <v>267</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -3340,19 +3356,19 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="38"/>
+      <c r="A211" s="43"/>
       <c r="B211" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="40"/>
+      <c r="A212" s="46"/>
       <c r="B212" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="39" t="s">
+      <c r="A213" s="45" t="s">
         <v>274</v>
       </c>
       <c r="B213" s="15" t="s">
@@ -3360,13 +3376,13 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="38"/>
+      <c r="A214" s="43"/>
       <c r="B214" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="40"/>
+      <c r="A215" s="46"/>
       <c r="B215" s="2" t="s">
         <v>280</v>
       </c>
@@ -3382,7 +3398,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="42" t="s">
+      <c r="A217" s="48" t="s">
         <v>277</v>
       </c>
       <c r="B217" s="15" t="s">
@@ -3390,13 +3406,13 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="43"/>
+      <c r="A218" s="49"/>
       <c r="B218" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="44"/>
+      <c r="A219" s="50"/>
       <c r="B219" s="2" t="s">
         <v>279</v>
       </c>
@@ -3420,7 +3436,7 @@
       <c r="A223" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="37" t="s">
+      <c r="B223" s="42" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3428,37 +3444,37 @@
       <c r="A224" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="37"/>
+      <c r="B224" s="42"/>
     </row>
     <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B225" s="37"/>
+      <c r="B225" s="42"/>
     </row>
     <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B226" s="37"/>
+      <c r="B226" s="42"/>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="37"/>
+      <c r="B227" s="42"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="B228" s="37"/>
+      <c r="B228" s="42"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="37"/>
+      <c r="B229" s="42"/>
     </row>
     <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
@@ -3468,32 +3484,32 @@
       <c r="D231" s="19"/>
     </row>
     <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="35" t="s">
+      <c r="A232" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B232" s="51" t="s">
+      <c r="B232" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C232" s="13" t="s">
+      <c r="C232" s="54" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="48" t="s">
+      <c r="A233" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="B233" s="47" t="s">
+      <c r="B233" s="37" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="48"/>
-      <c r="B234" s="46" t="s">
+      <c r="A234" s="52"/>
+      <c r="B234" s="36" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="36" t="s">
+      <c r="A235" s="44" t="s">
         <v>298</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -3501,14 +3517,14 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="36"/>
+      <c r="A236" s="44"/>
       <c r="B236" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="36"/>
-      <c r="B237" s="47" t="s">
+      <c r="A237" s="44"/>
+      <c r="B237" s="37" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3521,7 +3537,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="36" t="s">
+      <c r="A239" s="44" t="s">
         <v>306</v>
       </c>
       <c r="B239" s="19" t="s">
@@ -3529,14 +3545,14 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="36"/>
+      <c r="A240" s="44"/>
       <c r="B240" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="36"/>
-      <c r="B241" s="51" t="s">
+      <c r="A241" s="44"/>
+      <c r="B241" s="40" t="s">
         <v>309</v>
       </c>
       <c r="C241" s="13" t="s">
@@ -3552,50 +3568,53 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="52" t="s">
+      <c r="A243" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B243" s="46" t="s">
+      <c r="B243" s="36" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="36" t="s">
+      <c r="A244" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="B244" s="46" t="s">
+      <c r="B244" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="36"/>
+      <c r="A245" s="44"/>
       <c r="B245" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="36"/>
+      <c r="A246" s="44"/>
       <c r="B246" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247" s="36"/>
-      <c r="B247" s="2" t="s">
+      <c r="A247" s="44"/>
+      <c r="B247" s="53" t="s">
         <v>315</v>
       </c>
+      <c r="C247" s="54" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="36"/>
+      <c r="A248" s="44"/>
       <c r="B248" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="249" spans="1:3" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="49" t="s">
+      <c r="A249" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B249" s="50" t="s">
+      <c r="B249" s="39" t="s">
         <v>318</v>
       </c>
       <c r="C249" s="5"/>
@@ -3604,26 +3623,31 @@
       <c r="A250" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="B250" s="51" t="s">
+      <c r="B250" s="40" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="36" t="s">
+      <c r="A251" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B251" s="46" t="s">
+      <c r="B251" s="36" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="36"/>
+      <c r="A252" s="44"/>
       <c r="B252" s="2" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A244:A248"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
@@ -3637,11 +3661,6 @@
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A244:A248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -1366,11 +1366,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,16 +1403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,14 +1710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223:B229"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A227" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="81" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="85.42578125" style="17" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -2737,7 +2737,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="44" t="s">
+      <c r="A135" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
+      <c r="A137" s="45"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
+      <c r="A138" s="45"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="45" t="s">
+      <c r="A146" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2838,13 +2838,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
+      <c r="A147" s="48"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="46"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
     </row>
-    <row r="152" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="45" t="s">
+      <c r="A158" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2941,7 +2941,7 @@
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="46"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2970,8 +2970,8 @@
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
     </row>
-    <row r="162" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="45" t="s">
+    <row r="162" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -2983,7 +2983,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="46"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
@@ -3069,7 +3069,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="47" t="s">
+      <c r="A174" s="51" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3078,7 +3078,7 @@
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="47"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="17" t="s">
         <v>221</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="D177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="43" t="s">
+      <c r="A178" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="43"/>
+      <c r="A179" s="48"/>
       <c r="B179" s="17" t="s">
         <v>223</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="51" t="s">
+      <c r="A185" s="55" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3148,7 +3148,7 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+      <c r="A186" s="55"/>
       <c r="B186" s="2" t="s">
         <v>233</v>
       </c>
@@ -3179,7 +3179,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="51" t="s">
+      <c r="A190" s="55" t="s">
         <v>236</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -3190,7 +3190,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
+      <c r="A191" s="55"/>
       <c r="B191" s="17" t="s">
         <v>238</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="43" t="s">
+      <c r="A193" s="48" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -3218,7 +3218,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="43"/>
+      <c r="A194" s="48"/>
       <c r="B194" s="17" t="s">
         <v>242</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="43"/>
+      <c r="A195" s="48"/>
       <c r="B195" s="2" t="s">
         <v>243</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="D209" s="17"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="43" t="s">
+      <c r="A210" s="48" t="s">
         <v>267</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -3356,19 +3356,19 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="43"/>
+      <c r="A211" s="48"/>
       <c r="B211" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="46"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="45" t="s">
+      <c r="A213" s="49" t="s">
         <v>274</v>
       </c>
       <c r="B213" s="15" t="s">
@@ -3376,13 +3376,13 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="43"/>
+      <c r="A214" s="48"/>
       <c r="B214" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="46"/>
+      <c r="A215" s="50"/>
       <c r="B215" s="2" t="s">
         <v>280</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="48" t="s">
+      <c r="A217" s="52" t="s">
         <v>277</v>
       </c>
       <c r="B217" s="15" t="s">
@@ -3406,13 +3406,13 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="49"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="50"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="2" t="s">
         <v>279</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="A223" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="42" t="s">
+      <c r="B223" s="47" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3444,37 +3444,37 @@
       <c r="A224" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="42"/>
+      <c r="B224" s="47"/>
     </row>
     <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B225" s="42"/>
+      <c r="B225" s="47"/>
     </row>
     <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B226" s="42"/>
+      <c r="B226" s="47"/>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="42"/>
+      <c r="B227" s="47"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="B228" s="42"/>
+      <c r="B228" s="47"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="42"/>
+      <c r="B229" s="47"/>
     </row>
     <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
@@ -3484,18 +3484,18 @@
       <c r="D231" s="19"/>
     </row>
     <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="55" t="s">
+      <c r="A232" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B232" s="53" t="s">
+      <c r="B232" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="C232" s="54" t="s">
+      <c r="C232" s="43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="52" t="s">
+      <c r="A233" s="46" t="s">
         <v>296</v>
       </c>
       <c r="B233" s="37" t="s">
@@ -3503,13 +3503,13 @@
       </c>
     </row>
     <row r="234" spans="1:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="52"/>
+      <c r="A234" s="46"/>
       <c r="B234" s="36" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="44" t="s">
+      <c r="A235" s="45" t="s">
         <v>298</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -3517,13 +3517,13 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="44"/>
+      <c r="A236" s="45"/>
       <c r="B236" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="44"/>
+      <c r="A237" s="45"/>
       <c r="B237" s="37" t="s">
         <v>303</v>
       </c>
@@ -3537,7 +3537,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="44" t="s">
+      <c r="A239" s="45" t="s">
         <v>306</v>
       </c>
       <c r="B239" s="19" t="s">
@@ -3545,13 +3545,13 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="44"/>
+      <c r="A240" s="45"/>
       <c r="B240" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="44"/>
+      <c r="A241" s="45"/>
       <c r="B241" s="40" t="s">
         <v>309</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="44" t="s">
+      <c r="A244" s="45" t="s">
         <v>312</v>
       </c>
       <c r="B244" s="36" t="s">
@@ -3584,28 +3584,28 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="44"/>
+      <c r="A245" s="45"/>
       <c r="B245" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="44"/>
+      <c r="A246" s="45"/>
       <c r="B246" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247" s="44"/>
-      <c r="B247" s="53" t="s">
+      <c r="A247" s="45"/>
+      <c r="B247" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="C247" s="54" t="s">
+      <c r="C247" s="43" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="44"/>
+      <c r="A248" s="45"/>
       <c r="B248" s="2" t="s">
         <v>317</v>
       </c>
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="44" t="s">
+      <c r="A251" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B251" s="36" t="s">
@@ -3636,18 +3636,13 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="44"/>
+      <c r="A252" s="45"/>
       <c r="B252" s="2" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A244:A248"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
@@ -3661,6 +3656,11 @@
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A244:A248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
     <sheet name="Kaveh" sheetId="3" r:id="rId2"/>
-    <sheet name="App" sheetId="4" r:id="rId3"/>
+    <sheet name="KHL_KVH" sheetId="5" r:id="rId3"/>
+    <sheet name="App" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="332">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -1157,10 +1158,28 @@
     <t>as I said I think it should be handled in webserver or webservice controls, view handles anything be received</t>
   </si>
   <si>
-    <t>my decision was :: It's text, so it can contain 2 numbers with different formats for example, we can't limit user</t>
-  </si>
-  <si>
-    <t>we have these data in business class</t>
+    <t>gridview should show items that have picture only</t>
+  </si>
+  <si>
+    <t>BY Khalili</t>
+  </si>
+  <si>
+    <t>FragmentResultsUsers</t>
+  </si>
+  <si>
+    <t>execution error</t>
+  </si>
+  <si>
+    <t>Like, Unlike</t>
+  </si>
+  <si>
+    <t>options of post in post adapter and home post adapter should be rewritten</t>
+  </si>
+  <si>
+    <t>check web services please</t>
+  </si>
+  <si>
+    <t>status is ok but comment is not edited</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,12 +1237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1329,9 +1342,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1344,43 +1354,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,16 +1387,41 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1708,15 +1728,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A227" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="71" style="22" customWidth="1"/>
     <col min="2" max="2" width="76.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="85.42578125" style="17" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
@@ -2737,7 +2757,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="45" t="s">
+      <c r="A135" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2748,7 +2768,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="45"/>
+      <c r="A136" s="42"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2757,7 +2777,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
+      <c r="A137" s="42"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2766,7 +2786,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="45"/>
+      <c r="A138" s="42"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2830,7 +2850,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="49" t="s">
+      <c r="A146" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2838,13 +2858,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="41"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="50"/>
+      <c r="A148" s="44"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
@@ -2931,7 +2951,7 @@
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="49" t="s">
+      <c r="A158" s="43" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2941,7 +2961,7 @@
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="50"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2961,7 +2981,7 @@
       <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="30" t="s">
+      <c r="A161" s="29" t="s">
         <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -2971,7 +2991,7 @@
       <c r="D161" s="17"/>
     </row>
     <row r="162" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="49" t="s">
+      <c r="A162" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -2983,7 +3003,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="50"/>
+      <c r="A163" s="44"/>
       <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
@@ -3034,7 +3054,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A170" s="31" t="s">
+      <c r="A170" s="30" t="s">
         <v>211</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -3050,7 +3070,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="31" t="s">
+      <c r="A172" s="30" t="s">
         <v>215</v>
       </c>
       <c r="B172" s="17" t="s">
@@ -3061,7 +3081,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="30" t="s">
         <v>217</v>
       </c>
       <c r="B173" s="17" t="s">
@@ -3069,7 +3089,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="51" t="s">
+      <c r="A174" s="45" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3078,7 +3098,7 @@
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="51"/>
+      <c r="A175" s="45"/>
       <c r="B175" s="17" t="s">
         <v>221</v>
       </c>
@@ -3091,21 +3111,21 @@
       <c r="D177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="48" t="s">
+      <c r="A178" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="50" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
-      <c r="B179" s="17" t="s">
+      <c r="A179" s="46"/>
+      <c r="B179" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="31" t="s">
+      <c r="A180" s="30" t="s">
         <v>224</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -3121,7 +3141,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -3139,7 +3159,7 @@
       <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="55" t="s">
+      <c r="A185" s="46" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3148,7 +3168,7 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
+      <c r="A186" s="46"/>
       <c r="B186" s="2" t="s">
         <v>233</v>
       </c>
@@ -3156,19 +3176,19 @@
       <c r="D186" s="17"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="31" t="s">
+      <c r="A187" s="30" t="s">
         <v>231</v>
       </c>
       <c r="B187" s="17"/>
     </row>
     <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="32" t="s">
+      <c r="A188" s="31" t="s">
         <v>232</v>
       </c>
       <c r="B188" s="17"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="31" t="s">
+      <c r="A189" s="30" t="s">
         <v>234</v>
       </c>
       <c r="B189" s="17" t="s">
@@ -3179,7 +3199,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="55" t="s">
+      <c r="A190" s="46" t="s">
         <v>236</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -3190,7 +3210,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="55"/>
+      <c r="A191" s="46"/>
       <c r="B191" s="17" t="s">
         <v>238</v>
       </c>
@@ -3207,7 +3227,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="48" t="s">
+      <c r="A193" s="41" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -3218,7 +3238,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
+      <c r="A194" s="41"/>
       <c r="B194" s="17" t="s">
         <v>242</v>
       </c>
@@ -3227,7 +3247,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
+      <c r="A195" s="41"/>
       <c r="B195" s="2" t="s">
         <v>243</v>
       </c>
@@ -3236,7 +3256,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="31" t="s">
         <v>244</v>
       </c>
       <c r="B196" s="17" t="s">
@@ -3244,7 +3264,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="31" t="s">
+      <c r="A197" s="30" t="s">
         <v>234</v>
       </c>
       <c r="B197" s="17"/>
@@ -3273,7 +3293,7 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="31" t="s">
+      <c r="A200" s="30" t="s">
         <v>248</v>
       </c>
       <c r="B200" s="17" t="s">
@@ -3281,7 +3301,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="31" t="s">
+      <c r="A201" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B201" s="17" t="s">
@@ -3297,7 +3317,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="31" t="s">
+      <c r="A203" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="17" t="s">
@@ -3305,7 +3325,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="31" t="s">
+      <c r="A204" s="30" t="s">
         <v>253</v>
       </c>
       <c r="B204" s="17" t="s">
@@ -3313,7 +3333,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="31" t="s">
+      <c r="A205" s="30" t="s">
         <v>255</v>
       </c>
       <c r="B205" s="17"/>
@@ -3330,7 +3350,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="31" t="s">
+      <c r="A207" s="30" t="s">
         <v>257</v>
       </c>
       <c r="B207" s="17" t="s">
@@ -3348,80 +3368,80 @@
       <c r="D209" s="17"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="48" t="s">
+      <c r="A210" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="49" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="48"/>
-      <c r="B211" s="1" t="s">
+      <c r="A211" s="46"/>
+      <c r="B211" s="49" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="50"/>
-      <c r="B212" s="15" t="s">
+      <c r="A212" s="54"/>
+      <c r="B212" s="49" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="49" t="s">
+      <c r="A213" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="B213" s="49" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="48"/>
-      <c r="B214" s="15" t="s">
+      <c r="A214" s="46"/>
+      <c r="B214" s="49" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="50"/>
-      <c r="B215" s="2" t="s">
+      <c r="A215" s="54"/>
+      <c r="B215" s="50" t="s">
         <v>280</v>
       </c>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="28" t="s">
+      <c r="A216" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="49" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="52" t="s">
+      <c r="A217" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="49" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
-      <c r="B218" s="15" t="s">
+      <c r="A218" s="57"/>
+      <c r="B218" s="49" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="54"/>
-      <c r="B219" s="2" t="s">
+      <c r="A219" s="58"/>
+      <c r="B219" s="50" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="28" t="s">
+      <c r="A220" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="49" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3433,48 +3453,48 @@
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="33" t="s">
+      <c r="A223" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="47" t="s">
+      <c r="B223" s="40" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="34" t="s">
+      <c r="A224" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="47"/>
+      <c r="B224" s="40"/>
     </row>
     <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="33" t="s">
+      <c r="A225" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="B225" s="47"/>
+      <c r="B225" s="40"/>
     </row>
     <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="34" t="s">
+      <c r="A226" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="B226" s="47"/>
+      <c r="B226" s="40"/>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="34" t="s">
+      <c r="A227" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="47"/>
+      <c r="B227" s="40"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="35" t="s">
+      <c r="A228" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="B228" s="47"/>
+      <c r="B228" s="40"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="35" t="s">
+      <c r="A229" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="47"/>
+      <c r="B229" s="40"/>
     </row>
     <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
@@ -3484,13 +3504,13 @@
       <c r="D231" s="19"/>
     </row>
     <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="44" t="s">
+      <c r="A232" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B232" s="42" t="s">
+      <c r="B232" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C232" s="43" t="s">
+      <c r="C232" s="36" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3498,18 +3518,18 @@
       <c r="A233" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="B233" s="37" t="s">
+      <c r="B233" s="49" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="46"/>
-      <c r="B234" s="36" t="s">
+      <c r="B234" s="50" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="45" t="s">
+      <c r="A235" s="42" t="s">
         <v>298</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -3517,14 +3537,14 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="45"/>
+      <c r="A236" s="42"/>
       <c r="B236" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="45"/>
-      <c r="B237" s="37" t="s">
+      <c r="A237" s="42"/>
+      <c r="B237" s="49" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3537,7 +3557,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="45" t="s">
+      <c r="A239" s="42" t="s">
         <v>306</v>
       </c>
       <c r="B239" s="19" t="s">
@@ -3545,19 +3565,18 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="45"/>
-      <c r="B240" s="2" t="s">
+      <c r="A240" s="42"/>
+      <c r="B240" s="50" t="s">
         <v>308</v>
       </c>
+      <c r="C240" s="38"/>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="45"/>
-      <c r="B241" s="40" t="s">
+      <c r="A241" s="42"/>
+      <c r="B241" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="C241" s="13" t="s">
-        <v>324</v>
-      </c>
+      <c r="C241" s="38"/>
     </row>
     <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="22" t="s">
@@ -3568,81 +3587,102 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="41" t="s">
+      <c r="A243" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B243" s="36" t="s">
+      <c r="B243" s="50" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="45" t="s">
+      <c r="A244" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="B244" s="36" t="s">
+      <c r="B244" s="50" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="45"/>
+      <c r="A245" s="42"/>
       <c r="B245" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="45"/>
+      <c r="A246" s="42"/>
       <c r="B246" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247" s="45"/>
-      <c r="B247" s="42" t="s">
+      <c r="A247" s="42"/>
+      <c r="B247" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="C247" s="43" t="s">
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="42"/>
+      <c r="B248" s="50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B249" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="B250" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B251" s="50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="42"/>
+      <c r="B252" s="34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="25">
+        <v>42061</v>
+      </c>
+      <c r="B253" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="45"/>
-      <c r="B248" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B249" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C249" s="5"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B250" s="40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B251" s="36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="45"/>
-      <c r="B252" s="2" t="s">
-        <v>322</v>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="22" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A244:A248"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
@@ -3656,11 +3696,6 @@
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A244:A248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3672,7 +3707,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,6 +3748,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25">
+        <v>42061</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="332">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -1288,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1342,9 +1342,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1371,22 +1368,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1412,17 +1393,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1730,15 +1736,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235:A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71" style="22" customWidth="1"/>
     <col min="2" max="2" width="76.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" style="17" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -2757,7 +2763,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="42" t="s">
+      <c r="A135" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2768,7 +2774,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
+      <c r="A136" s="48"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2777,7 +2783,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="42"/>
+      <c r="A137" s="48"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2786,7 +2792,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
+      <c r="A138" s="48"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2850,7 +2856,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2858,13 +2864,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
+      <c r="A147" s="52"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="44"/>
+      <c r="A148" s="53"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
@@ -2883,7 +2889,7 @@
       <c r="D150" s="17"/>
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="27" t="s">
+      <c r="A151" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -2893,7 +2899,7 @@
       <c r="D151" s="17"/>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="28" t="s">
+      <c r="A152" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -2903,7 +2909,7 @@
       <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B153" s="12" t="s">
@@ -2913,7 +2919,7 @@
       <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="28" t="s">
+      <c r="A154" s="44" t="s">
         <v>194</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -2923,7 +2929,7 @@
       <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -2951,7 +2957,7 @@
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2961,7 +2967,7 @@
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="44"/>
+      <c r="A159" s="53"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2981,7 +2987,7 @@
       <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="29" t="s">
+      <c r="A161" s="60" t="s">
         <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -2991,7 +2997,7 @@
       <c r="D161" s="17"/>
     </row>
     <row r="162" spans="1:6" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="43" t="s">
+      <c r="A162" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -3003,7 +3009,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="44"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
@@ -3030,7 +3036,7 @@
       <c r="D166" s="17"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="27" t="s">
+      <c r="A167" s="47" t="s">
         <v>207</v>
       </c>
       <c r="B167" s="17" t="s">
@@ -3038,23 +3044,19 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="28" t="s">
+      <c r="A168" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B168" s="17" t="s">
-        <v>259</v>
-      </c>
+      <c r="B168" s="17"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="26" t="s">
+      <c r="A169" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="B169" s="17" t="s">
-        <v>259</v>
-      </c>
+      <c r="B169" s="17"/>
     </row>
     <row r="170" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A170" s="30" t="s">
+      <c r="A170" s="29" t="s">
         <v>211</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -3070,7 +3072,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="30" t="s">
+      <c r="A172" s="29" t="s">
         <v>215</v>
       </c>
       <c r="B172" s="17" t="s">
@@ -3081,7 +3083,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="30" t="s">
+      <c r="A173" s="29" t="s">
         <v>217</v>
       </c>
       <c r="B173" s="17" t="s">
@@ -3089,7 +3091,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="45" t="s">
+      <c r="A174" s="54" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3098,7 +3100,7 @@
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="45"/>
+      <c r="A175" s="54"/>
       <c r="B175" s="17" t="s">
         <v>221</v>
       </c>
@@ -3111,21 +3113,21 @@
       <c r="D177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="46" t="s">
+      <c r="A178" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B178" s="50" t="s">
+      <c r="B178" s="43" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="46"/>
+      <c r="A179" s="49"/>
       <c r="B179" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="30" t="s">
+      <c r="A180" s="29" t="s">
         <v>224</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -3141,7 +3143,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="30" t="s">
+      <c r="A182" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -3159,7 +3161,7 @@
       <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="46" t="s">
+      <c r="A185" s="49" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3168,7 +3170,7 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="46"/>
+      <c r="A186" s="49"/>
       <c r="B186" s="2" t="s">
         <v>233</v>
       </c>
@@ -3176,19 +3178,19 @@
       <c r="D186" s="17"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="30" t="s">
+      <c r="A187" s="29" t="s">
         <v>231</v>
       </c>
       <c r="B187" s="17"/>
     </row>
     <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="31" t="s">
+      <c r="A188" s="30" t="s">
         <v>232</v>
       </c>
       <c r="B188" s="17"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="30" t="s">
+      <c r="A189" s="29" t="s">
         <v>234</v>
       </c>
       <c r="B189" s="17" t="s">
@@ -3199,7 +3201,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="46" t="s">
+      <c r="A190" s="49" t="s">
         <v>236</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -3210,7 +3212,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="46"/>
+      <c r="A191" s="49"/>
       <c r="B191" s="17" t="s">
         <v>238</v>
       </c>
@@ -3227,7 +3229,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="41" t="s">
+      <c r="A193" s="49" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -3238,7 +3240,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="41"/>
+      <c r="A194" s="49"/>
       <c r="B194" s="17" t="s">
         <v>242</v>
       </c>
@@ -3247,7 +3249,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="41"/>
+      <c r="A195" s="49"/>
       <c r="B195" s="2" t="s">
         <v>243</v>
       </c>
@@ -3256,7 +3258,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="31" t="s">
+      <c r="A196" s="30" t="s">
         <v>244</v>
       </c>
       <c r="B196" s="17" t="s">
@@ -3264,13 +3266,13 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="30" t="s">
+      <c r="A197" s="29" t="s">
         <v>234</v>
       </c>
       <c r="B197" s="17"/>
     </row>
     <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="26" t="s">
+      <c r="A198" s="39" t="s">
         <v>246</v>
       </c>
       <c r="B198" s="17" t="s">
@@ -3293,7 +3295,7 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="29" t="s">
         <v>248</v>
       </c>
       <c r="B200" s="17" t="s">
@@ -3301,7 +3303,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="30" t="s">
+      <c r="A201" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B201" s="17" t="s">
@@ -3309,7 +3311,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="26" t="s">
+      <c r="A202" s="39" t="s">
         <v>251</v>
       </c>
       <c r="B202" s="17" t="s">
@@ -3317,7 +3319,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="30" t="s">
+      <c r="A203" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="17" t="s">
@@ -3325,7 +3327,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="30" t="s">
+      <c r="A204" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B204" s="17" t="s">
@@ -3333,7 +3335,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="30" t="s">
+      <c r="A205" s="29" t="s">
         <v>255</v>
       </c>
       <c r="B205" s="17"/>
@@ -3350,7 +3352,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="30" t="s">
+      <c r="A207" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B207" s="17" t="s">
@@ -3368,52 +3370,52 @@
       <c r="D209" s="17"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="46" t="s">
+      <c r="A210" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B210" s="49" t="s">
+      <c r="B210" s="42" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="46"/>
-      <c r="B211" s="49" t="s">
+      <c r="A211" s="49"/>
+      <c r="B211" s="42" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="54"/>
-      <c r="B212" s="49" t="s">
+      <c r="A212" s="55"/>
+      <c r="B212" s="42" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="55" t="s">
+      <c r="A213" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="B213" s="49" t="s">
+      <c r="B213" s="42" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="46"/>
-      <c r="B214" s="49" t="s">
+      <c r="A214" s="49"/>
+      <c r="B214" s="42" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="54"/>
-      <c r="B215" s="50" t="s">
+      <c r="A215" s="55"/>
+      <c r="B215" s="43" t="s">
         <v>280</v>
       </c>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="51" t="s">
+      <c r="A216" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="B216" s="49" t="s">
+      <c r="B216" s="42" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3421,27 +3423,27 @@
       <c r="A217" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="B217" s="49" t="s">
+      <c r="B217" s="42" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="57"/>
-      <c r="B218" s="49" t="s">
+      <c r="B218" s="42" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="58"/>
-      <c r="B219" s="50" t="s">
+      <c r="B219" s="43" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="51" t="s">
+      <c r="A220" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B220" s="49" t="s">
+      <c r="B220" s="42" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3453,48 +3455,48 @@
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="32" t="s">
+      <c r="A223" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="40" t="s">
+      <c r="B223" s="50" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="47" t="s">
+      <c r="A224" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="40"/>
+      <c r="B224" s="50"/>
     </row>
     <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="53" t="s">
+      <c r="A225" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="B225" s="40"/>
+      <c r="B225" s="50"/>
     </row>
     <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="47" t="s">
+      <c r="A226" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="B226" s="40"/>
+      <c r="B226" s="50"/>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="47" t="s">
+      <c r="A227" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="40"/>
+      <c r="B227" s="50"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="48" t="s">
+      <c r="A228" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B228" s="40"/>
+      <c r="B228" s="50"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="33" t="s">
+      <c r="A229" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="40"/>
+      <c r="B229" s="50"/>
     </row>
     <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
@@ -3504,47 +3506,47 @@
       <c r="D231" s="19"/>
     </row>
     <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="37" t="s">
+      <c r="A232" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B232" s="35" t="s">
+      <c r="B232" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="C232" s="36" t="s">
+      <c r="C232" s="35" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="46" t="s">
+      <c r="A233" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="B233" s="49" t="s">
+      <c r="B233" s="42" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="46"/>
-      <c r="B234" s="50" t="s">
+      <c r="A234" s="49"/>
+      <c r="B234" s="43" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="42" t="s">
+      <c r="A235" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="42" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="42"/>
+      <c r="A236" s="48"/>
       <c r="B236" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="42"/>
-      <c r="B237" s="49" t="s">
+      <c r="A237" s="48"/>
+      <c r="B237" s="42" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3557,7 +3559,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="42" t="s">
+      <c r="A239" s="48" t="s">
         <v>306</v>
       </c>
       <c r="B239" s="19" t="s">
@@ -3565,96 +3567,96 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="42"/>
-      <c r="B240" s="50" t="s">
+      <c r="A240" s="48"/>
+      <c r="B240" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="C240" s="38"/>
+      <c r="C240" s="37"/>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="42"/>
-      <c r="B241" s="50" t="s">
+      <c r="A241" s="48"/>
+      <c r="B241" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="C241" s="38"/>
+      <c r="C241" s="37"/>
     </row>
     <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="22" t="s">
+      <c r="A242" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="43" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="39" t="s">
+      <c r="A243" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B243" s="50" t="s">
+      <c r="B243" s="43" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="42" t="s">
+      <c r="A244" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="B244" s="50" t="s">
+      <c r="B244" s="43" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="42"/>
+      <c r="A245" s="48"/>
       <c r="B245" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="42"/>
+      <c r="A246" s="48"/>
       <c r="B246" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247" s="42"/>
-      <c r="B247" s="52" t="s">
+      <c r="A247" s="48"/>
+      <c r="B247" s="45" t="s">
         <v>315</v>
       </c>
       <c r="C247" s="5"/>
     </row>
     <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="42"/>
-      <c r="B248" s="50" t="s">
+      <c r="A248" s="48"/>
+      <c r="B248" s="43" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="249" spans="1:3" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="51" t="s">
+      <c r="A249" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B249" s="52" t="s">
+      <c r="B249" s="45" t="s">
         <v>318</v>
       </c>
       <c r="C249" s="5"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="39" t="s">
+      <c r="A250" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="B250" s="50" t="s">
+      <c r="B250" s="43" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="42" t="s">
+      <c r="A251" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B251" s="50" t="s">
+      <c r="B251" s="43" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="42"/>
-      <c r="B252" s="34" t="s">
+      <c r="A252" s="48"/>
+      <c r="B252" s="33" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3678,11 +3680,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A244:A248"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
@@ -3696,6 +3693,11 @@
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A244:A248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -1366,11 +1366,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,16 +1403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223:B229"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,7 +2737,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="44" t="s">
+      <c r="A135" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
+      <c r="A137" s="45"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
+      <c r="A138" s="45"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="45" t="s">
+      <c r="A146" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2838,13 +2838,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
+      <c r="A147" s="48"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="46"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="45" t="s">
+      <c r="A158" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2941,7 +2941,7 @@
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="46"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="D161" s="17"/>
     </row>
     <row r="162" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="45" t="s">
+      <c r="A162" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -2983,7 +2983,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="46"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
@@ -3069,7 +3069,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="47" t="s">
+      <c r="A174" s="51" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3078,7 +3078,7 @@
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="47"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="17" t="s">
         <v>221</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="D177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="43" t="s">
+      <c r="A178" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="43"/>
+      <c r="A179" s="48"/>
       <c r="B179" s="17" t="s">
         <v>223</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="51" t="s">
+      <c r="A185" s="55" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3148,7 +3148,7 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+      <c r="A186" s="55"/>
       <c r="B186" s="2" t="s">
         <v>233</v>
       </c>
@@ -3179,7 +3179,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="51" t="s">
+      <c r="A190" s="55" t="s">
         <v>236</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -3190,7 +3190,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
+      <c r="A191" s="55"/>
       <c r="B191" s="17" t="s">
         <v>238</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="43" t="s">
+      <c r="A193" s="48" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -3218,7 +3218,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="43"/>
+      <c r="A194" s="48"/>
       <c r="B194" s="17" t="s">
         <v>242</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="43"/>
+      <c r="A195" s="48"/>
       <c r="B195" s="2" t="s">
         <v>243</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="D209" s="17"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="43" t="s">
+      <c r="A210" s="48" t="s">
         <v>267</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -3356,19 +3356,19 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="43"/>
+      <c r="A211" s="48"/>
       <c r="B211" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="46"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="45" t="s">
+      <c r="A213" s="49" t="s">
         <v>274</v>
       </c>
       <c r="B213" s="15" t="s">
@@ -3376,13 +3376,13 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="43"/>
+      <c r="A214" s="48"/>
       <c r="B214" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="46"/>
+      <c r="A215" s="50"/>
       <c r="B215" s="2" t="s">
         <v>280</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="48" t="s">
+      <c r="A217" s="52" t="s">
         <v>277</v>
       </c>
       <c r="B217" s="15" t="s">
@@ -3406,13 +3406,13 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="49"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="50"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="2" t="s">
         <v>279</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="A223" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="42" t="s">
+      <c r="B223" s="47" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3444,37 +3444,37 @@
       <c r="A224" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="42"/>
+      <c r="B224" s="47"/>
     </row>
     <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B225" s="42"/>
+      <c r="B225" s="47"/>
     </row>
     <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B226" s="42"/>
+      <c r="B226" s="47"/>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="42"/>
+      <c r="B227" s="47"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="B228" s="42"/>
+      <c r="B228" s="47"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="42"/>
+      <c r="B229" s="47"/>
     </row>
     <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
@@ -3484,18 +3484,18 @@
       <c r="D231" s="19"/>
     </row>
     <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="55" t="s">
+      <c r="A232" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B232" s="53" t="s">
+      <c r="B232" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="C232" s="54" t="s">
+      <c r="C232" s="43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="52" t="s">
+      <c r="A233" s="46" t="s">
         <v>296</v>
       </c>
       <c r="B233" s="37" t="s">
@@ -3503,13 +3503,13 @@
       </c>
     </row>
     <row r="234" spans="1:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="52"/>
+      <c r="A234" s="46"/>
       <c r="B234" s="36" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="44" t="s">
+      <c r="A235" s="45" t="s">
         <v>298</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -3517,13 +3517,13 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="44"/>
+      <c r="A236" s="45"/>
       <c r="B236" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="44"/>
+      <c r="A237" s="45"/>
       <c r="B237" s="37" t="s">
         <v>303</v>
       </c>
@@ -3537,7 +3537,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="44" t="s">
+      <c r="A239" s="45" t="s">
         <v>306</v>
       </c>
       <c r="B239" s="19" t="s">
@@ -3545,13 +3545,13 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="44"/>
+      <c r="A240" s="45"/>
       <c r="B240" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="44"/>
+      <c r="A241" s="45"/>
       <c r="B241" s="40" t="s">
         <v>309</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="44" t="s">
+      <c r="A244" s="45" t="s">
         <v>312</v>
       </c>
       <c r="B244" s="36" t="s">
@@ -3584,28 +3584,28 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="44"/>
+      <c r="A245" s="45"/>
       <c r="B245" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="44"/>
+      <c r="A246" s="45"/>
       <c r="B246" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247" s="44"/>
-      <c r="B247" s="53" t="s">
+      <c r="A247" s="45"/>
+      <c r="B247" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="C247" s="54" t="s">
+      <c r="C247" s="43" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="44"/>
+      <c r="A248" s="45"/>
       <c r="B248" s="2" t="s">
         <v>317</v>
       </c>
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="44" t="s">
+      <c r="A251" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B251" s="36" t="s">
@@ -3636,18 +3636,13 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="44"/>
+      <c r="A252" s="45"/>
       <c r="B252" s="2" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A244:A248"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
@@ -3661,6 +3656,11 @@
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A244:A248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="328">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -1161,6 +1161,12 @@
   </si>
   <si>
     <t>we have these data in business class</t>
+  </si>
+  <si>
+    <t>GetUserHomeInfo</t>
+  </si>
+  <si>
+    <t>see webservices_2.18.2015 record number 15</t>
   </si>
 </sst>
 </file>
@@ -1373,14 +1379,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,6 +1405,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1710,7 +1716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
@@ -2737,7 +2743,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="45" t="s">
+      <c r="A135" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -2748,7 +2754,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="45"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="8" t="s">
         <v>177</v>
       </c>
@@ -2757,7 +2763,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="8" t="s">
         <v>178</v>
       </c>
@@ -2766,7 +2772,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="45"/>
+      <c r="A138" s="47"/>
       <c r="B138" s="8" t="s">
         <v>179</v>
       </c>
@@ -2830,7 +2836,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="49" t="s">
+      <c r="A146" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2838,13 +2844,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="46"/>
       <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="50"/>
+      <c r="A148" s="49"/>
       <c r="B148" s="2" t="s">
         <v>188</v>
       </c>
@@ -2931,7 +2937,7 @@
       <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="49" t="s">
+      <c r="A158" s="48" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -2941,7 +2947,7 @@
       <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="50"/>
+      <c r="A159" s="49"/>
       <c r="B159" s="2" t="s">
         <v>198</v>
       </c>
@@ -2971,7 +2977,7 @@
       <c r="D161" s="17"/>
     </row>
     <row r="162" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="49" t="s">
+      <c r="A162" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -2983,7 +2989,7 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="50"/>
+      <c r="A163" s="49"/>
       <c r="B163" s="2" t="s">
         <v>202</v>
       </c>
@@ -3069,7 +3075,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="51" t="s">
+      <c r="A174" s="50" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3078,7 +3084,7 @@
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="51"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="17" t="s">
         <v>221</v>
       </c>
@@ -3091,7 +3097,7 @@
       <c r="D177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="48" t="s">
+      <c r="A178" s="46" t="s">
         <v>28</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -3099,7 +3105,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
+      <c r="A179" s="46"/>
       <c r="B179" s="17" t="s">
         <v>223</v>
       </c>
@@ -3139,7 +3145,7 @@
       <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="55" t="s">
+      <c r="A185" s="54" t="s">
         <v>229</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3148,7 +3154,7 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="2" t="s">
         <v>233</v>
       </c>
@@ -3179,7 +3185,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="55" t="s">
+      <c r="A190" s="54" t="s">
         <v>236</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -3190,7 +3196,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="55"/>
+      <c r="A191" s="54"/>
       <c r="B191" s="17" t="s">
         <v>238</v>
       </c>
@@ -3207,7 +3213,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="48" t="s">
+      <c r="A193" s="46" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -3218,7 +3224,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
+      <c r="A194" s="46"/>
       <c r="B194" s="17" t="s">
         <v>242</v>
       </c>
@@ -3227,7 +3233,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
+      <c r="A195" s="46"/>
       <c r="B195" s="2" t="s">
         <v>243</v>
       </c>
@@ -3348,7 +3354,7 @@
       <c r="D209" s="17"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="48" t="s">
+      <c r="A210" s="46" t="s">
         <v>267</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -3356,19 +3362,19 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="48"/>
+      <c r="A211" s="46"/>
       <c r="B211" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="50"/>
+      <c r="A212" s="49"/>
       <c r="B212" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="49" t="s">
+      <c r="A213" s="48" t="s">
         <v>274</v>
       </c>
       <c r="B213" s="15" t="s">
@@ -3376,13 +3382,13 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="48"/>
+      <c r="A214" s="46"/>
       <c r="B214" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="50"/>
+      <c r="A215" s="49"/>
       <c r="B215" s="2" t="s">
         <v>280</v>
       </c>
@@ -3398,7 +3404,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="52" t="s">
+      <c r="A217" s="51" t="s">
         <v>277</v>
       </c>
       <c r="B217" s="15" t="s">
@@ -3406,13 +3412,13 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
+      <c r="A218" s="52"/>
       <c r="B218" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="54"/>
+      <c r="A219" s="53"/>
       <c r="B219" s="2" t="s">
         <v>279</v>
       </c>
@@ -3436,7 +3442,7 @@
       <c r="A223" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B223" s="47" t="s">
+      <c r="B223" s="45" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3444,37 +3450,37 @@
       <c r="A224" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B224" s="47"/>
+      <c r="B224" s="45"/>
     </row>
     <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B225" s="47"/>
+      <c r="B225" s="45"/>
     </row>
     <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B226" s="47"/>
+      <c r="B226" s="45"/>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="47"/>
+      <c r="B227" s="45"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="B228" s="47"/>
+      <c r="B228" s="45"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="47"/>
+      <c r="B229" s="45"/>
     </row>
     <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
@@ -3495,7 +3501,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="46" t="s">
+      <c r="A233" s="55" t="s">
         <v>296</v>
       </c>
       <c r="B233" s="37" t="s">
@@ -3503,13 +3509,13 @@
       </c>
     </row>
     <row r="234" spans="1:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="46"/>
+      <c r="A234" s="55"/>
       <c r="B234" s="36" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="45" t="s">
+      <c r="A235" s="47" t="s">
         <v>298</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -3517,13 +3523,13 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="45"/>
+      <c r="A236" s="47"/>
       <c r="B236" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="45"/>
+      <c r="A237" s="47"/>
       <c r="B237" s="37" t="s">
         <v>303</v>
       </c>
@@ -3537,7 +3543,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="45" t="s">
+      <c r="A239" s="47" t="s">
         <v>306</v>
       </c>
       <c r="B239" s="19" t="s">
@@ -3545,13 +3551,13 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="45"/>
+      <c r="A240" s="47"/>
       <c r="B240" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="45"/>
+      <c r="A241" s="47"/>
       <c r="B241" s="40" t="s">
         <v>309</v>
       </c>
@@ -3576,7 +3582,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="45" t="s">
+      <c r="A244" s="47" t="s">
         <v>312</v>
       </c>
       <c r="B244" s="36" t="s">
@@ -3584,19 +3590,19 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="45"/>
+      <c r="A245" s="47"/>
       <c r="B245" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="45"/>
+      <c r="A246" s="47"/>
       <c r="B246" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247" s="45"/>
+      <c r="A247" s="47"/>
       <c r="B247" s="42" t="s">
         <v>315</v>
       </c>
@@ -3605,7 +3611,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="45"/>
+      <c r="A248" s="47"/>
       <c r="B248" s="2" t="s">
         <v>317</v>
       </c>
@@ -3628,7 +3634,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="45" t="s">
+      <c r="A251" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B251" s="36" t="s">
@@ -3636,13 +3642,18 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="45"/>
+      <c r="A252" s="47"/>
       <c r="B252" s="2" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A244:A248"/>
     <mergeCell ref="B223:B229"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A135:A138"/>
@@ -3656,11 +3667,6 @@
     <mergeCell ref="A185:A186"/>
     <mergeCell ref="A190:A191"/>
     <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A244:A248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3669,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,29 +3687,37 @@
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Khalili" sheetId="1" r:id="rId1"/>
     <sheet name="Kaveh" sheetId="3" r:id="rId2"/>
     <sheet name="App" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="332">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -1167,6 +1167,18 @@
   </si>
   <si>
     <t>see webservices_2.18.2015 record number 15</t>
+  </si>
+  <si>
+    <t>Test share item in TimeLine</t>
+  </si>
+  <si>
+    <t>Test update business profile info</t>
+  </si>
+  <si>
+    <t>Uncomment GetBusinessContactInfo in BusinessCallInfo</t>
+  </si>
+  <si>
+    <t>Check updatePost to see what posts get error</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,6 +3730,26 @@
       </c>
       <c r="B7" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/ToDo.xlsx
+++ b/app/src/docs/ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="334">
   <si>
     <t>ActivityLogin</t>
   </si>
@@ -1179,6 +1179,12 @@
   </si>
   <si>
     <t>Check updatePost to see what posts get error</t>
+  </si>
+  <si>
+    <t>12 records for dates</t>
+  </si>
+  <si>
+    <t>217 errors</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1307,7 +1313,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1391,11 +1396,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,9 +1425,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1726,34 +1731,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="81" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="16" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1764,62 +1769,62 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1827,56 +1832,56 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1884,7 +1889,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1892,26 +1897,26 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1919,7 +1924,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1927,1758 +1932,1748 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>38</v>
+      <c r="A22" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>39</v>
+      <c r="A24" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>41</v>
+      <c r="A25" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>47</v>
+      <c r="A29" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>48</v>
+      <c r="A30" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>49</v>
+      <c r="A31" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24">
+        <v>42014</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="24">
+        <v>42045</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24">
+        <v>42049</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="24">
+        <v>42050</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="B114" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
+      <c r="B121" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="44"/>
+      <c r="B122" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="44"/>
+      <c r="B123" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="24">
+        <v>42051</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+    </row>
+    <row r="127" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="47"/>
+      <c r="B131" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="49"/>
+      <c r="B132" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="24">
+        <v>42052</v>
+      </c>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+    </row>
+    <row r="134" spans="1:6" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+    </row>
+    <row r="135" spans="1:6" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+    </row>
+    <row r="136" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+    </row>
+    <row r="137" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+    </row>
+    <row r="138" spans="1:6" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+    </row>
+    <row r="139" spans="1:6" s="11" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="27"/>
+      <c r="B139" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+    </row>
+    <row r="140" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+    </row>
+    <row r="141" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="B141" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+    </row>
+    <row r="142" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="49"/>
+      <c r="B142" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+    </row>
+    <row r="143" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="1:6" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+    </row>
+    <row r="145" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+    </row>
+    <row r="146" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="49"/>
+      <c r="B146" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+    </row>
+    <row r="147" spans="1:6" s="11" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+    </row>
+    <row r="148" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="24">
+        <v>42053</v>
+      </c>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="50"/>
+      <c r="B157" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="24">
+        <v>42056</v>
+      </c>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+    </row>
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="47"/>
+      <c r="B160" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="24">
+        <v>42057</v>
+      </c>
+      <c r="B164" s="9">
+        <v>42057</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+    </row>
+    <row r="165" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="54"/>
+      <c r="B166" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B167" s="16"/>
+    </row>
+    <row r="168" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A168" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B168" s="16"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="54"/>
+      <c r="B171" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="47"/>
+      <c r="B174" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="47"/>
+      <c r="B175" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B177" s="16"/>
+    </row>
+    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B185" s="16"/>
+    </row>
+    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="24">
+        <v>42058</v>
+      </c>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="47"/>
+      <c r="B190" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="49"/>
+      <c r="B191" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="47"/>
+      <c r="B193" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="14" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="49"/>
+      <c r="B194" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="52"/>
+      <c r="B197" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="53"/>
+      <c r="B198" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="24">
+        <v>42059</v>
+      </c>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="B201" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B202" s="46"/>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B203" s="46"/>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B204" s="46"/>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B205" s="46"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B206" s="46"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B207" s="46"/>
+    </row>
+    <row r="208" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="24">
+        <v>42060</v>
+      </c>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
+    </row>
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="B209" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C209" s="42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B210" s="36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A211" s="45"/>
+      <c r="B211" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="44"/>
+      <c r="B213" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="44"/>
+      <c r="B214" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="44"/>
+      <c r="B217" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="44"/>
+      <c r="B218" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="B220" s="35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="B221" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="44"/>
+      <c r="B222" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="44"/>
+      <c r="B223" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A224" s="44"/>
+      <c r="B224" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C224" s="42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="44"/>
+      <c r="B225" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="37" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
-        <v>42014</v>
-      </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25">
-        <v>42045</v>
-      </c>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="25">
-        <v>42049</v>
-      </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C121" s="5"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="8"/>
-    </row>
-    <row r="128" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="25">
-        <v>42050</v>
-      </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="47" t="s">
+      <c r="B226" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B227" s="39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
-      <c r="B138" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-    </row>
-    <row r="142" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="25">
-        <v>42051</v>
-      </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-    </row>
-    <row r="143" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="46"/>
-      <c r="B147" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="49"/>
-      <c r="B148" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="22"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-    </row>
-    <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="25">
-        <v>42052</v>
-      </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-    </row>
-    <row r="151" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-    </row>
-    <row r="152" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-    </row>
-    <row r="153" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-    </row>
-    <row r="154" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-    </row>
-    <row r="155" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-    </row>
-    <row r="156" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="28"/>
-      <c r="B156" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-    </row>
-    <row r="157" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-    </row>
-    <row r="158" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-    </row>
-    <row r="159" spans="1:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="49"/>
-      <c r="B159" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-    </row>
-    <row r="160" spans="1:6" s="13" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-    </row>
-    <row r="161" spans="1:6" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-    </row>
-    <row r="162" spans="1:6" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-    </row>
-    <row r="163" spans="1:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="49"/>
-      <c r="B163" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-    </row>
-    <row r="164" spans="1:6" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-    </row>
-    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="25">
-        <v>42053</v>
-      </c>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B167" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A170" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B172" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B173" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
-      <c r="B175" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="25">
-        <v>42056</v>
-      </c>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-    </row>
-    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="46"/>
-      <c r="B179" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="25">
-        <v>42057</v>
-      </c>
-      <c r="B184" s="10">
-        <v>42057</v>
-      </c>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-    </row>
-    <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="54"/>
-      <c r="B186" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B187" s="17"/>
-    </row>
-    <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B188" s="17"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B189" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="B190" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="54"/>
-      <c r="B191" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="B193" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="46"/>
-      <c r="B194" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="46"/>
-      <c r="B195" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B197" s="17"/>
-    </row>
-    <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B198" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B200" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B201" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B202" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B204" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B205" s="17"/>
-    </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B206" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B207" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C207" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="25">
-        <v>42058</v>
-      </c>
-      <c r="C209" s="17"/>
-      <c r="D209" s="17"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="46"/>
-      <c r="B211" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="49"/>
-      <c r="B212" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="46"/>
-      <c r="B214" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" s="15" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="49"/>
-      <c r="B215" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C215" s="17"/>
-      <c r="D215" s="17"/>
-    </row>
-    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B216" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="B217" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="52"/>
-      <c r="B218" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="53"/>
-      <c r="B219" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B220" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="25">
-        <v>42059</v>
-      </c>
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B223" s="45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="B224" s="45"/>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="B225" s="45"/>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="B226" s="45"/>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="B227" s="45"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="B228" s="45"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="B229" s="45"/>
-    </row>
-    <row r="231" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="25">
-        <v>42060</v>
-      </c>
-      <c r="C231" s="19"/>
-      <c r="D231" s="19"/>
-    </row>
-    <row r="232" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B232" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="C232" s="43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="B233" s="37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="55"/>
-      <c r="B234" s="36" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="47"/>
-      <c r="B236" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="47"/>
-      <c r="B237" s="37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A238" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B239" s="19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="47"/>
-      <c r="B240" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="47"/>
-      <c r="B241" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B243" s="36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="B244" s="36" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="47"/>
-      <c r="B245" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="47"/>
-      <c r="B246" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247" s="47"/>
-      <c r="B247" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="C247" s="43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="47"/>
-      <c r="B248" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B249" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C249" s="5"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B250" s="40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B251" s="36" t="s">
+      <c r="B228" s="35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="47"/>
-      <c r="B252" s="2" t="s">
+    <row r="229" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A229" s="44"/>
+      <c r="B229" s="2" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="21" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A244:A248"/>
-    <mergeCell ref="B223:B229"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="A217:A219"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="B201:B207"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="A221:A225"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3710,7 +3705,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>285</v>
       </c>
     </row>
